--- a/Suivi-2014.xlsx
+++ b/Suivi-2014.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANIS ABID\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="17715" windowHeight="8700" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="lite des projet" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <sheet name="Mars 2014" sheetId="11" r:id="rId11"/>
     <sheet name=".NET" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -30,7 +35,7 @@
     <author>Anis Abid</author>
   </authors>
   <commentList>
-    <comment ref="AB82" authorId="0">
+    <comment ref="AB82" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G94" authorId="0">
+    <comment ref="G94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G102" authorId="0">
+    <comment ref="G102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="0">
+    <comment ref="G114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G115" authorId="0">
+    <comment ref="G115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K115" authorId="0">
+    <comment ref="K115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G116" authorId="0">
+    <comment ref="G116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +218,7 @@
     <author>Anis Abid</author>
   </authors>
   <commentList>
-    <comment ref="H81" authorId="0">
+    <comment ref="H81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T81" authorId="0">
+    <comment ref="T81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +277,7 @@
     <author>taieb</author>
   </authors>
   <commentList>
-    <comment ref="K80" authorId="0">
+    <comment ref="K80" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K81" authorId="0">
+    <comment ref="K81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S84" authorId="0">
+    <comment ref="S84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K85" authorId="0">
+    <comment ref="K85" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S85" authorId="0">
+    <comment ref="S85" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB85" authorId="0">
+    <comment ref="AB85" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S86" authorId="0">
+    <comment ref="S86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K87" authorId="0">
+    <comment ref="K87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S87" authorId="0">
+    <comment ref="S87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB87" authorId="0">
+    <comment ref="AB87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K91" authorId="0">
+    <comment ref="K91" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S91" authorId="0">
+    <comment ref="S91" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -574,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K94" authorId="0">
+    <comment ref="K94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S94" authorId="0">
+    <comment ref="S94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S95" authorId="0">
+    <comment ref="S95" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K96" authorId="0">
+    <comment ref="K96" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K98" authorId="0">
+    <comment ref="K98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -697,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S98" authorId="0">
+    <comment ref="S98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB98" authorId="0">
+    <comment ref="AB98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K99" authorId="0">
+    <comment ref="K99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -771,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S99" authorId="0">
+    <comment ref="S99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -797,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB99" authorId="0">
+    <comment ref="AB99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K100" authorId="0">
+    <comment ref="K100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -846,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S100" authorId="0">
+    <comment ref="S100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB100" authorId="0">
+    <comment ref="AB100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -896,7 +901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K101" authorId="1">
+    <comment ref="K101" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -923,7 +928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S101" authorId="0">
+    <comment ref="S101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K102" authorId="1">
+    <comment ref="K102" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S102" authorId="0">
+    <comment ref="S102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB102" authorId="0">
+    <comment ref="AB102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K103" authorId="1">
+    <comment ref="K103" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S103" authorId="1">
+    <comment ref="S103" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB103" authorId="0">
+    <comment ref="AB103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K105" authorId="1">
+    <comment ref="K105" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S105" authorId="1">
+    <comment ref="S105" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB105" authorId="1">
+    <comment ref="AB105" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K108" authorId="1">
+    <comment ref="K108" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1216,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S108" authorId="1">
+    <comment ref="S108" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB108" authorId="1">
+    <comment ref="AB108" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K109" authorId="0">
+    <comment ref="K109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S109" authorId="0">
+    <comment ref="S109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB109" authorId="0">
+    <comment ref="AB109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1348,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K110" authorId="0">
+    <comment ref="K110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S110" authorId="0">
+    <comment ref="S110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1402,7 +1407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB110" authorId="0">
+    <comment ref="AB110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K111" authorId="1">
+    <comment ref="K111" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1456,7 +1461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S111" authorId="1">
+    <comment ref="S111" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1483,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB111" authorId="0">
+    <comment ref="AB111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K114" authorId="1">
+    <comment ref="K114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1531,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O114" authorId="1">
+    <comment ref="O114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S114" authorId="1">
+    <comment ref="S114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O115" authorId="0">
+    <comment ref="O115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1606,7 +1611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S115" authorId="0">
+    <comment ref="S115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1631,7 +1636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O116" authorId="0">
+    <comment ref="O116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S116" authorId="0">
+    <comment ref="S116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1683,7 +1688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S117" authorId="0">
+    <comment ref="S117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1707,7 +1712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K118" authorId="0">
+    <comment ref="K118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1731,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S118" authorId="0">
+    <comment ref="S118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1756,7 +1761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G121" authorId="0">
+    <comment ref="G121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1780,7 +1785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K121" authorId="0">
+    <comment ref="K121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1804,7 +1809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S121" authorId="0">
+    <comment ref="S121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1828,7 +1833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S122" authorId="0">
+    <comment ref="S122" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1852,7 +1857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K123" authorId="0">
+    <comment ref="K123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1876,7 +1881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S123" authorId="0">
+    <comment ref="S123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1901,7 +1906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G124" authorId="0">
+    <comment ref="G124" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1925,7 +1930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S124" authorId="0">
+    <comment ref="S124" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1949,7 +1954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G125" authorId="0">
+    <comment ref="G125" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1973,7 +1978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S125" authorId="0">
+    <comment ref="S125" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1998,7 +2003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S128" authorId="0">
+    <comment ref="S128" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2023,7 +2028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G129" authorId="0">
+    <comment ref="G129" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2047,7 +2052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S129" authorId="0">
+    <comment ref="S129" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2072,7 +2077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB129" authorId="0">
+    <comment ref="AB129" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G130" authorId="0">
+    <comment ref="G130" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2120,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S130" authorId="0">
+    <comment ref="S130" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2146,7 +2151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB130" authorId="0">
+    <comment ref="AB130" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2171,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G131" authorId="0">
+    <comment ref="G131" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2195,7 +2200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S131" authorId="0">
+    <comment ref="S131" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2219,7 +2224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G132" authorId="0">
+    <comment ref="G132" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G133" authorId="0">
+    <comment ref="G133" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2267,7 +2272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S135" authorId="0">
+    <comment ref="S135" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2291,7 +2296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S136" authorId="0">
+    <comment ref="S136" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2316,7 +2321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S137" authorId="0">
+    <comment ref="S137" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2340,7 +2345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G141" authorId="0">
+    <comment ref="G141" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2364,7 +2369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G144" authorId="0">
+    <comment ref="G144" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2389,7 +2394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S144" authorId="0">
+    <comment ref="S144" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2415,7 +2420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G145" authorId="0">
+    <comment ref="G145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2440,7 +2445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S145" authorId="0">
+    <comment ref="S145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G146" authorId="0">
+    <comment ref="G146" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2490,7 +2495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S146" authorId="0">
+    <comment ref="S146" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2518,7 +2523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G147" authorId="0">
+    <comment ref="G147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2543,7 +2548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S147" authorId="0">
+    <comment ref="S147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2568,7 +2573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G148" authorId="0">
+    <comment ref="G148" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S151" authorId="0">
+    <comment ref="S151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2618,7 +2623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S152" authorId="0">
+    <comment ref="S152" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2642,6 +2647,81 @@
         </r>
       </text>
     </comment>
+    <comment ref="S153" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2526
+LGFP-2527</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S154" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2527
+LGFP-2531</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S155" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2549
+LGFP-2534</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2652,7 +2732,7 @@
     <author>Anis Abid</author>
   </authors>
   <commentList>
-    <comment ref="G90" authorId="0">
+    <comment ref="G90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2688,7 +2768,7 @@
     <author>Anis Abid</author>
   </authors>
   <commentList>
-    <comment ref="D102" authorId="0">
+    <comment ref="D102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2717,7 +2797,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="177">
   <si>
     <t>Notaires.fr</t>
   </si>
@@ -3785,9 +3865,9 @@
     <xf numFmtId="14" fontId="13" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3802,28 +3882,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3831,6 +3905,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3851,6 +3931,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3899,7 +3982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3934,7 +4017,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4227,19 +4310,19 @@
       <c r="C5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="87" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4248,27 +4331,27 @@
         <v>145</v>
       </c>
       <c r="C6" s="64"/>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="88" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="88"/>
+      <c r="B7" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="86"/>
       <c r="D7" s="65">
         <f>SUM('Notaires.fr Imputation'!D70:D100)</f>
         <v>4.25</v>
@@ -4291,10 +4374,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="65">
         <f>SUM(Sofrecom.com!D70:D100)</f>
         <v>0</v>
@@ -4317,10 +4400,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="65">
         <f>SUM(LeGuide!D75:D105)</f>
         <v>0</v>
@@ -4343,10 +4426,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="65">
         <f>SUM(Sircom!D70:D100)</f>
         <v>0</v>
@@ -4369,10 +4452,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="65">
         <f>SUM('Notaires.fr Imputation'!D74:D104)</f>
         <v>4.25</v>
@@ -4426,16 +4509,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7813,11 +7896,11 @@
       </c>
       <c r="D145">
         <f>'Notaires.fr Imputation'!L142+Sofrecom.com!L142+LeGuide!L151+PFE!L142+Sircom!L142</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <f>'Notaires.fr Imputation'!P142+Sofrecom.com!P142+LeGuide!P151+PFE!P142+Sircom!P142</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <f>'Notaires.fr Imputation'!T142+Sofrecom.com!T142+LeGuide!T151+PFE!T142+Sircom!T142</f>
@@ -7838,15 +7921,15 @@
       </c>
       <c r="D146">
         <f>'Notaires.fr Imputation'!L143+Sofrecom.com!L143+LeGuide!L152+PFE!L143+Sircom!L143</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <f>'Notaires.fr Imputation'!P143+Sofrecom.com!P143+LeGuide!P152+PFE!P143+Sircom!P143</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
         <f>'Notaires.fr Imputation'!T143+Sofrecom.com!T143+LeGuide!T152+PFE!T143+Sircom!T143</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7863,15 +7946,15 @@
       </c>
       <c r="D147">
         <f>'Notaires.fr Imputation'!L144+Sofrecom.com!L144+LeGuide!L153+PFE!L144+Sircom!L144</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <f>'Notaires.fr Imputation'!P144+Sofrecom.com!P144+LeGuide!P153+PFE!P144+Sircom!P144</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <f>'Notaires.fr Imputation'!T144+Sofrecom.com!T144+LeGuide!T153+PFE!T144+Sircom!T144</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7888,15 +7971,15 @@
       </c>
       <c r="D148">
         <f>'Notaires.fr Imputation'!L145+Sofrecom.com!L145+LeGuide!L154+PFE!L145+Sircom!L145</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <f>'Notaires.fr Imputation'!P145+Sofrecom.com!P145+LeGuide!P154+PFE!P145+Sircom!P145</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
         <f>'Notaires.fr Imputation'!T145+Sofrecom.com!T145+LeGuide!T154+PFE!T145+Sircom!T145</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7913,15 +7996,15 @@
       </c>
       <c r="D149">
         <f>'Notaires.fr Imputation'!L146+Sofrecom.com!L146+LeGuide!L155+PFE!L146+Sircom!L146</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <f>'Notaires.fr Imputation'!P146+Sofrecom.com!P146+LeGuide!P155+PFE!P146+Sircom!P146</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
         <f>'Notaires.fr Imputation'!T146+Sofrecom.com!T146+LeGuide!T155+PFE!T146+Sircom!T146</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13695,15 +13778,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="73"/>
       <c r="S2" s="75" t="s">
         <v>15</v>
       </c>
@@ -13713,15 +13796,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="73"/>
       <c r="S3" s="76" t="s">
         <v>16</v>
       </c>
@@ -13740,83 +13823,83 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="B6" s="66"/>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>36.75</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74">
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73">
         <f>L5-L6</f>
         <v>-22.75</v>
       </c>
-      <c r="M7" s="74"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="73" t="s">
+      <c r="AB9" s="79" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13824,7 +13907,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -13885,7 +13968,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="73"/>
+      <c r="AB10" s="79"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -18346,6 +18429,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
@@ -18355,18 +18450,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18395,11 +18478,11 @@
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
@@ -18635,15 +18718,15 @@
       <c r="B20" s="25">
         <v>68496</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
       <c r="J20" s="2">
         <v>41710</v>
       </c>
@@ -18655,15 +18738,15 @@
       <c r="B21" s="25">
         <v>68495</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
       <c r="J21" s="2">
         <v>41710</v>
       </c>
@@ -18675,15 +18758,15 @@
       <c r="B22" s="25">
         <v>68448</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="2">
         <v>41710</v>
       </c>
@@ -18711,14 +18794,14 @@
       <c r="B24" s="26">
         <v>68489</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -18769,14 +18852,14 @@
       <c r="B27" s="26">
         <v>68672</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="27" t="s">
         <v>69</v>
       </c>
@@ -18807,14 +18890,14 @@
       <c r="B29" s="26">
         <v>68666</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
       <c r="I29" s="26" t="s">
         <v>69</v>
       </c>
@@ -18829,14 +18912,14 @@
       <c r="B30" s="26">
         <v>68670</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="26" t="s">
         <v>69</v>
       </c>
@@ -18851,12 +18934,12 @@
       <c r="B31" s="26">
         <v>68697</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="26" t="s">
         <v>69</v>
       </c>
@@ -18869,11 +18952,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C29:H29"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C23:H23"/>
@@ -18881,6 +18959,11 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19524,15 +19607,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="73"/>
       <c r="S2" s="75" t="s">
         <v>15</v>
       </c>
@@ -19542,15 +19625,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="73"/>
       <c r="S3" s="76" t="s">
         <v>16</v>
       </c>
@@ -19569,86 +19652,86 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <v>12</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74">
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73">
         <f>L5-L6</f>
         <v>2</v>
       </c>
-      <c r="M7" s="74"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -23527,6 +23610,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="I5:K5"/>
@@ -23539,14 +23630,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -23557,11 +23640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:XFA390"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="S151" sqref="S151"/>
+      <selection pane="bottomRight" activeCell="A170" sqref="A170:AB170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -23582,11 +23665,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
@@ -23600,11 +23683,11 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
@@ -23627,78 +23710,78 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <f>SUM(E12:E390)+SUM(I12:I390)+SUM(M12:M390)+SUM(Q12:Q390)+SUM(U12:U390)+SUM(Z12:Z390)</f>
-        <v>119</v>
-      </c>
-      <c r="M5" s="74"/>
+        <v>133</v>
+      </c>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <f>SUM(D12:D390)+SUM(H12:H390)+SUM(L12:L390)+SUM(P12:P390)+SUM(T12:T390)+SUM(Y12:Y390)</f>
-        <v>124.25</v>
-      </c>
-      <c r="M6" s="74"/>
+        <v>138.25</v>
+      </c>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="73" t="s">
+      <c r="AB9" s="79" t="s">
         <v>57</v>
       </c>
     </row>
@@ -23706,7 +23789,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -23767,7 +23850,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="73"/>
+      <c r="AB10" s="79"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
@@ -28197,6 +28280,9 @@
       <c r="H145">
         <v>1</v>
       </c>
+      <c r="K145" t="s">
+        <v>49</v>
+      </c>
       <c r="L145">
         <v>1</v>
       </c>
@@ -28229,6 +28315,9 @@
       <c r="H146">
         <v>1</v>
       </c>
+      <c r="K146" t="s">
+        <v>49</v>
+      </c>
       <c r="L146">
         <v>1</v>
       </c>
@@ -28261,6 +28350,9 @@
       <c r="H147">
         <v>1</v>
       </c>
+      <c r="K147" t="s">
+        <v>49</v>
+      </c>
       <c r="L147">
         <v>1</v>
       </c>
@@ -28292,6 +28384,9 @@
       </c>
       <c r="H148">
         <v>1</v>
+      </c>
+      <c r="K148" t="s">
+        <v>49</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -28398,6 +28493,27 @@
       <c r="A151" s="2">
         <v>41771</v>
       </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>49</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>174</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
       <c r="S151" t="s">
         <v>47</v>
       </c>
@@ -28412,23 +28528,128 @@
       <c r="A152" s="2">
         <v>41772</v>
       </c>
+      <c r="K152" t="s">
+        <v>49</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>174</v>
+      </c>
+      <c r="P152">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
       <c r="S152" t="s">
         <v>47</v>
+      </c>
+      <c r="T152">
+        <v>1</v>
+      </c>
+      <c r="U152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>41773</v>
       </c>
+      <c r="K153" t="s">
+        <v>49</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>174</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="S153" t="s">
+        <v>47</v>
+      </c>
+      <c r="T153">
+        <v>1</v>
+      </c>
+      <c r="U153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>41774</v>
       </c>
+      <c r="K154" t="s">
+        <v>49</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>174</v>
+      </c>
+      <c r="P154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="S154" t="s">
+        <v>47</v>
+      </c>
+      <c r="T154">
+        <v>1</v>
+      </c>
+      <c r="U154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41775</v>
+      </c>
+      <c r="K155" t="s">
+        <v>49</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>174</v>
+      </c>
+      <c r="P155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>1</v>
+      </c>
+      <c r="S155" t="s">
+        <v>47</v>
+      </c>
+      <c r="T155">
+        <v>1</v>
+      </c>
+      <c r="U155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -28510,82 +28731,163 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="161" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>41781</v>
       </c>
     </row>
-    <row r="162" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>41782</v>
       </c>
     </row>
-    <row r="163" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+    <row r="163" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="58">
         <v>41783</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="59"/>
+      <c r="J163" s="59"/>
+      <c r="K163" s="59"/>
+      <c r="L163" s="59"/>
+      <c r="M163" s="59"/>
+      <c r="N163" s="59"/>
+      <c r="O163" s="59"/>
+      <c r="P163" s="59"/>
+      <c r="Q163" s="59"/>
+      <c r="R163" s="59"/>
+      <c r="S163" s="59"/>
+      <c r="T163" s="59"/>
+      <c r="U163" s="59"/>
+      <c r="V163" s="59"/>
+      <c r="W163" s="59"/>
+      <c r="X163" s="59"/>
+      <c r="Y163" s="59"/>
+      <c r="Z163" s="59"/>
+      <c r="AA163" s="59"/>
+      <c r="AB163" s="59"/>
+    </row>
+    <row r="164" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="56">
         <v>41784</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="57"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="57"/>
+      <c r="E164" s="57"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="57"/>
+      <c r="J164" s="57"/>
+      <c r="K164" s="57"/>
+      <c r="L164" s="57"/>
+      <c r="M164" s="57"/>
+      <c r="N164" s="57"/>
+      <c r="O164" s="57"/>
+      <c r="P164" s="57"/>
+      <c r="Q164" s="57"/>
+      <c r="R164" s="57"/>
+      <c r="S164" s="57"/>
+      <c r="T164" s="57"/>
+      <c r="U164" s="57"/>
+      <c r="V164" s="57"/>
+      <c r="W164" s="57"/>
+      <c r="X164" s="57"/>
+      <c r="Y164" s="57"/>
+      <c r="Z164" s="57"/>
+      <c r="AA164" s="57"/>
+      <c r="AB164" s="57"/>
+    </row>
+    <row r="165" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>41785</v>
       </c>
     </row>
-    <row r="166" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="167" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>41787</v>
       </c>
     </row>
-    <row r="168" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>41788</v>
       </c>
     </row>
-    <row r="169" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>41789</v>
       </c>
     </row>
-    <row r="170" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+    <row r="170" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="58">
         <v>41790</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="59"/>
+      <c r="K170" s="59"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="59"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="59"/>
+      <c r="P170" s="59"/>
+      <c r="Q170" s="59"/>
+      <c r="R170" s="59"/>
+      <c r="S170" s="59"/>
+      <c r="T170" s="59"/>
+      <c r="U170" s="59"/>
+      <c r="V170" s="59"/>
+      <c r="W170" s="59"/>
+      <c r="X170" s="59"/>
+      <c r="Y170" s="59"/>
+      <c r="Z170" s="59"/>
+      <c r="AA170" s="59"/>
+      <c r="AB170" s="59"/>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="173" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>41791</v>
       </c>
     </row>
-    <row r="174" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>41792</v>
       </c>
     </row>
-    <row r="175" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>41793</v>
       </c>
     </row>
-    <row r="176" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>41794</v>
       </c>
@@ -29660,15 +29962,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="C74:Z74"/>
-    <mergeCell ref="C107:Z107"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="I2:K2"/>
@@ -29685,6 +29978,15 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="C107:Z107"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29706,11 +30008,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
@@ -29724,11 +30026,11 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
@@ -29751,82 +30053,82 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <f>SUM(E11:E375)+SUM(I11:I375)+SUM(M11:M375)+SUM(Q11:Q375)+SUM(U11:U375)+SUM(Z11:Z375)</f>
         <v>3.5</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>4.75</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -31798,13 +32100,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="I2:K2"/>
@@ -31818,6 +32113,13 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Suivi-2014.xlsx
+++ b/Suivi-2014.xlsx
@@ -2722,6 +2722,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="S158" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2534</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2797,7 +2821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="177">
   <si>
     <t>Notaires.fr</t>
   </si>
@@ -3865,9 +3889,9 @@
     <xf numFmtId="14" fontId="13" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3882,22 +3906,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3905,12 +3935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4310,19 +4334,19 @@
       <c r="C5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="85" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4331,27 +4355,27 @@
         <v>145</v>
       </c>
       <c r="C6" s="64"/>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="86"/>
+      <c r="B7" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="88"/>
       <c r="D7" s="65">
         <f>SUM('Notaires.fr Imputation'!D70:D100)</f>
         <v>4.25</v>
@@ -4374,10 +4398,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="65">
         <f>SUM(Sofrecom.com!D70:D100)</f>
         <v>0</v>
@@ -4400,10 +4424,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="65">
         <f>SUM(LeGuide!D75:D105)</f>
         <v>0</v>
@@ -4426,10 +4450,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="65">
         <f>SUM(Sircom!D70:D100)</f>
         <v>0</v>
@@ -4452,10 +4476,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="65">
         <f>SUM('Notaires.fr Imputation'!D74:D104)</f>
         <v>4.25</v>
@@ -4509,16 +4533,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8071,15 +8095,15 @@
       </c>
       <c r="D152">
         <f>'Notaires.fr Imputation'!L149+Sofrecom.com!L149+LeGuide!L158+PFE!L149+Sircom!L149</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152">
         <f>'Notaires.fr Imputation'!P149+Sofrecom.com!P149+LeGuide!P158+PFE!P149+Sircom!P149</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <f>'Notaires.fr Imputation'!T149+Sofrecom.com!T149+LeGuide!T158+PFE!T149+Sircom!T149</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13778,15 +13802,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
-      <c r="M2" s="73"/>
+      <c r="M2" s="74"/>
       <c r="S2" s="75" t="s">
         <v>15</v>
       </c>
@@ -13796,15 +13820,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
-      <c r="M3" s="73"/>
+      <c r="M3" s="74"/>
       <c r="S3" s="76" t="s">
         <v>16</v>
       </c>
@@ -13823,83 +13847,83 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74">
         <v>14</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="B6" s="66"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>36.75</v>
       </c>
-      <c r="M6" s="73"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74">
         <f>L5-L6</f>
         <v>-22.75</v>
       </c>
-      <c r="M7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="73" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13907,7 +13931,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -13968,7 +13992,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="79"/>
+      <c r="AB10" s="73"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -18429,18 +18453,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
@@ -18450,6 +18462,18 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18478,11 +18502,11 @@
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
@@ -18718,15 +18742,15 @@
       <c r="B20" s="25">
         <v>68496</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="2">
         <v>41710</v>
       </c>
@@ -18738,15 +18762,15 @@
       <c r="B21" s="25">
         <v>68495</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="2">
         <v>41710</v>
       </c>
@@ -18758,15 +18782,15 @@
       <c r="B22" s="25">
         <v>68448</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="2">
         <v>41710</v>
       </c>
@@ -18794,14 +18818,14 @@
       <c r="B24" s="26">
         <v>68489</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -18852,14 +18876,14 @@
       <c r="B27" s="26">
         <v>68672</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
       <c r="I27" s="27" t="s">
         <v>69</v>
       </c>
@@ -18890,14 +18914,14 @@
       <c r="B29" s="26">
         <v>68666</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="26" t="s">
         <v>69</v>
       </c>
@@ -18912,14 +18936,14 @@
       <c r="B30" s="26">
         <v>68670</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="26" t="s">
         <v>69</v>
       </c>
@@ -18934,12 +18958,12 @@
       <c r="B31" s="26">
         <v>68697</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="26" t="s">
         <v>69</v>
       </c>
@@ -18952,6 +18976,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C29:H29"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C23:H23"/>
@@ -18959,11 +18988,6 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19607,15 +19631,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
-      <c r="M2" s="73"/>
+      <c r="M2" s="74"/>
       <c r="S2" s="75" t="s">
         <v>15</v>
       </c>
@@ -19625,15 +19649,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
-      <c r="M3" s="73"/>
+      <c r="M3" s="74"/>
       <c r="S3" s="76" t="s">
         <v>16</v>
       </c>
@@ -19652,86 +19676,86 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74">
         <v>14</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74">
         <v>12</v>
       </c>
-      <c r="M6" s="73"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74">
         <f>L5-L6</f>
         <v>2</v>
       </c>
-      <c r="M7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -23610,14 +23634,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="I5:K5"/>
@@ -23630,6 +23646,14 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -23644,7 +23668,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A170" sqref="A170:AB170"/>
+      <selection pane="bottomRight" activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -23665,11 +23689,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
@@ -23683,11 +23707,11 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
@@ -23710,78 +23734,78 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74">
         <f>SUM(E12:E390)+SUM(I12:I390)+SUM(M12:M390)+SUM(Q12:Q390)+SUM(U12:U390)+SUM(Z12:Z390)</f>
-        <v>133</v>
-      </c>
-      <c r="M5" s="73"/>
+        <v>136</v>
+      </c>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74">
         <f>SUM(D12:D390)+SUM(H12:H390)+SUM(L12:L390)+SUM(P12:P390)+SUM(T12:T390)+SUM(Y12:Y390)</f>
-        <v>138.25</v>
-      </c>
-      <c r="M6" s="73"/>
+        <v>141.25</v>
+      </c>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="73" t="s">
         <v>57</v>
       </c>
     </row>
@@ -23789,7 +23813,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -23850,7 +23874,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="79"/>
+      <c r="AB10" s="73"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
@@ -28720,6 +28744,33 @@
       <c r="A158" s="2">
         <v>41778</v>
       </c>
+      <c r="K158" t="s">
+        <v>76</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>60</v>
+      </c>
+      <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>1</v>
+      </c>
+      <c r="S158" t="s">
+        <v>47</v>
+      </c>
+      <c r="T158">
+        <v>1</v>
+      </c>
+      <c r="U158">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
@@ -29962,6 +30013,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="C107:Z107"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="I2:K2"/>
@@ -29978,15 +30038,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="C74:Z74"/>
-    <mergeCell ref="C107:Z107"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30008,11 +30059,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
@@ -30026,11 +30077,11 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
@@ -30053,82 +30104,82 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74">
         <f>SUM(E11:E375)+SUM(I11:I375)+SUM(M11:M375)+SUM(Q11:Q375)+SUM(U11:U375)+SUM(Z11:Z375)</f>
         <v>3.5</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>4.75</v>
       </c>
-      <c r="M6" s="73"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -32100,6 +32151,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="I2:K2"/>
@@ -32113,13 +32171,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Suivi-2014.xlsx
+++ b/Suivi-2014.xlsx
@@ -2722,6 +2722,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G158" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Sircom (Nouveau PSD)
+- Evolution rubrique video</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S158" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2743,6 +2768,203 @@
           </rPr>
           <t xml:space="preserve">
 LGFP-2534</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G159" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- OGPE Fêtes des pères LeGuide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G160" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- AngularJS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G161" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Leguide Produit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G162" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- JS Menuiserie
+- JS Notaire DEV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S162" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Anis Abid:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LGFP-2569
+LGFP-2305
+LGFP-2522 analyse</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S163" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Sifast</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S165" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2570
+LGFP-2305
+LGFP-2522</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S166" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2524</t>
         </r>
       </text>
     </comment>
@@ -2821,7 +3043,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="178">
   <si>
     <t>Notaires.fr</t>
   </si>
@@ -3380,6 +3602,9 @@
   <si>
     <t>Dicod + leguide</t>
   </si>
+  <si>
+    <t>SiFAST</t>
+  </si>
 </sst>
 </file>
 
@@ -3889,9 +4114,9 @@
     <xf numFmtId="14" fontId="13" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3906,28 +4131,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3935,6 +4154,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4334,19 +4559,19 @@
       <c r="C5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="87" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4355,27 +4580,27 @@
         <v>145</v>
       </c>
       <c r="C6" s="64"/>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="88" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="88"/>
+      <c r="B7" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="86"/>
       <c r="D7" s="65">
         <f>SUM('Notaires.fr Imputation'!D70:D100)</f>
         <v>4.25</v>
@@ -4398,10 +4623,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="65">
         <f>SUM(Sofrecom.com!D70:D100)</f>
         <v>0</v>
@@ -4424,10 +4649,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="65">
         <f>SUM(LeGuide!D75:D105)</f>
         <v>0</v>
@@ -4450,10 +4675,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="65">
         <f>SUM(Sircom!D70:D100)</f>
         <v>0</v>
@@ -4476,10 +4701,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="65">
         <f>SUM('Notaires.fr Imputation'!D74:D104)</f>
         <v>4.25</v>
@@ -4533,16 +4758,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8120,15 +8345,15 @@
       </c>
       <c r="D153">
         <f>'Notaires.fr Imputation'!L150+Sofrecom.com!L150+LeGuide!L159+PFE!L150+Sircom!L150</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <f>'Notaires.fr Imputation'!P150+Sofrecom.com!P150+LeGuide!P159+PFE!P150+Sircom!P150</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
         <f>'Notaires.fr Imputation'!T150+Sofrecom.com!T150+LeGuide!T159+PFE!T150+Sircom!T150</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8145,15 +8370,15 @@
       </c>
       <c r="D154">
         <f>'Notaires.fr Imputation'!L151+Sofrecom.com!L151+LeGuide!L160+PFE!L151+Sircom!L151</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <f>'Notaires.fr Imputation'!P151+Sofrecom.com!P151+LeGuide!P160+PFE!P151+Sircom!P151</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
         <f>'Notaires.fr Imputation'!T151+Sofrecom.com!T151+LeGuide!T160+PFE!T151+Sircom!T151</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8170,15 +8395,15 @@
       </c>
       <c r="D155">
         <f>'Notaires.fr Imputation'!L152+Sofrecom.com!L152+LeGuide!L161+PFE!L152+Sircom!L152</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155">
         <f>'Notaires.fr Imputation'!P152+Sofrecom.com!P152+LeGuide!P161+PFE!P152+Sircom!P152</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <f>'Notaires.fr Imputation'!T152+Sofrecom.com!T152+LeGuide!T161+PFE!T152+Sircom!T152</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8195,15 +8420,15 @@
       </c>
       <c r="D156">
         <f>'Notaires.fr Imputation'!L153+Sofrecom.com!L153+LeGuide!L162+PFE!L153+Sircom!L153</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <f>'Notaires.fr Imputation'!P153+Sofrecom.com!P153+LeGuide!P162+PFE!P153+Sircom!P153</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
         <f>'Notaires.fr Imputation'!T153+Sofrecom.com!T153+LeGuide!T162+PFE!T153+Sircom!T153</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8278,7 +8503,7 @@
       </c>
       <c r="F159">
         <f>'Notaires.fr Imputation'!T156+Sofrecom.com!T156+LeGuide!T165+PFE!T156+Sircom!T156</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8303,7 +8528,7 @@
       </c>
       <c r="F160">
         <f>'Notaires.fr Imputation'!T157+Sofrecom.com!T157+LeGuide!T166+PFE!T157+Sircom!T157</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13802,15 +14027,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="73"/>
       <c r="S2" s="75" t="s">
         <v>15</v>
       </c>
@@ -13820,15 +14045,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="73"/>
       <c r="S3" s="76" t="s">
         <v>16</v>
       </c>
@@ -13847,83 +14072,83 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="B6" s="66"/>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>36.75</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74">
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73">
         <f>L5-L6</f>
         <v>-22.75</v>
       </c>
-      <c r="M7" s="74"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="73" t="s">
+      <c r="AB9" s="79" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13931,7 +14156,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -13992,7 +14217,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="73"/>
+      <c r="AB10" s="79"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -18453,6 +18678,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
@@ -18462,18 +18699,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18502,11 +18727,11 @@
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
@@ -18742,15 +18967,15 @@
       <c r="B20" s="25">
         <v>68496</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
       <c r="J20" s="2">
         <v>41710</v>
       </c>
@@ -18762,15 +18987,15 @@
       <c r="B21" s="25">
         <v>68495</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
       <c r="J21" s="2">
         <v>41710</v>
       </c>
@@ -18782,15 +19007,15 @@
       <c r="B22" s="25">
         <v>68448</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="2">
         <v>41710</v>
       </c>
@@ -18818,14 +19043,14 @@
       <c r="B24" s="26">
         <v>68489</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -18876,14 +19101,14 @@
       <c r="B27" s="26">
         <v>68672</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="27" t="s">
         <v>69</v>
       </c>
@@ -18914,14 +19139,14 @@
       <c r="B29" s="26">
         <v>68666</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
       <c r="I29" s="26" t="s">
         <v>69</v>
       </c>
@@ -18936,14 +19161,14 @@
       <c r="B30" s="26">
         <v>68670</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="26" t="s">
         <v>69</v>
       </c>
@@ -18958,12 +19183,12 @@
       <c r="B31" s="26">
         <v>68697</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="26" t="s">
         <v>69</v>
       </c>
@@ -18976,11 +19201,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C29:H29"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C23:H23"/>
@@ -18988,6 +19208,11 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19631,15 +19856,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="73"/>
       <c r="S2" s="75" t="s">
         <v>15</v>
       </c>
@@ -19649,15 +19874,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="73"/>
       <c r="S3" s="76" t="s">
         <v>16</v>
       </c>
@@ -19676,86 +19901,86 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <v>12</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74">
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73">
         <f>L5-L6</f>
         <v>2</v>
       </c>
-      <c r="M7" s="74"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -23634,6 +23859,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="I5:K5"/>
@@ -23646,14 +23879,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -23665,10 +23890,10 @@
   <dimension ref="A2:XFA390"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H158" sqref="H158"/>
+      <selection pane="bottomRight" activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -23689,11 +23914,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
@@ -23707,11 +23932,11 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
@@ -23734,78 +23959,78 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <f>SUM(E12:E390)+SUM(I12:I390)+SUM(M12:M390)+SUM(Q12:Q390)+SUM(U12:U390)+SUM(Z12:Z390)</f>
-        <v>136</v>
-      </c>
-      <c r="M5" s="74"/>
+        <v>150</v>
+      </c>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <f>SUM(D12:D390)+SUM(H12:H390)+SUM(L12:L390)+SUM(P12:P390)+SUM(T12:T390)+SUM(Y12:Y390)</f>
-        <v>141.25</v>
-      </c>
-      <c r="M6" s="74"/>
+        <v>155.25</v>
+      </c>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="73" t="s">
+      <c r="AB9" s="79" t="s">
         <v>57</v>
       </c>
     </row>
@@ -23813,7 +24038,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -23874,7 +24099,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="73"/>
+      <c r="AB10" s="79"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
@@ -28520,6 +28745,9 @@
       <c r="H151">
         <v>0</v>
       </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
       <c r="K151" t="s">
         <v>49</v>
       </c>
@@ -28552,6 +28780,12 @@
       <c r="A152" s="2">
         <v>41772</v>
       </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
       <c r="K152" t="s">
         <v>49</v>
       </c>
@@ -28584,6 +28818,12 @@
       <c r="A153" s="2">
         <v>41773</v>
       </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
       <c r="K153" t="s">
         <v>49</v>
       </c>
@@ -28616,6 +28856,12 @@
       <c r="A154" s="2">
         <v>41774</v>
       </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
       <c r="K154" t="s">
         <v>49</v>
       </c>
@@ -28647,6 +28893,12 @@
     <row r="155" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41775</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
       </c>
       <c r="K155" t="s">
         <v>49</v>
@@ -28744,6 +28996,12 @@
       <c r="A158" s="2">
         <v>41778</v>
       </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
       <c r="K158" t="s">
         <v>76</v>
       </c>
@@ -28776,20 +29034,152 @@
       <c r="A159" s="2">
         <v>41779</v>
       </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>76</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>60</v>
+      </c>
+      <c r="P159">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>1</v>
+      </c>
+      <c r="S159" t="s">
+        <v>47</v>
+      </c>
+      <c r="T159">
+        <v>1</v>
+      </c>
+      <c r="U159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>41780</v>
       </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>76</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>60</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="S160" t="s">
+        <v>47</v>
+      </c>
+      <c r="T160">
+        <v>1</v>
+      </c>
+      <c r="U160">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>41781</v>
       </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>76</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>60</v>
+      </c>
+      <c r="P161">
+        <v>1</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="S161" t="s">
+        <v>47</v>
+      </c>
+      <c r="T161">
+        <v>1</v>
+      </c>
+      <c r="U161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>41782</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>76</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>60</v>
+      </c>
+      <c r="P162">
+        <v>1</v>
+      </c>
+      <c r="Q162">
+        <v>1</v>
+      </c>
+      <c r="S162" t="s">
+        <v>47</v>
+      </c>
+      <c r="T162">
+        <v>1</v>
+      </c>
+      <c r="U162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -28809,13 +29199,25 @@
       <c r="L163" s="59"/>
       <c r="M163" s="59"/>
       <c r="N163" s="59"/>
-      <c r="O163" s="59"/>
-      <c r="P163" s="59"/>
-      <c r="Q163" s="59"/>
+      <c r="O163" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="P163" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="59">
+        <v>0</v>
+      </c>
       <c r="R163" s="59"/>
-      <c r="S163" s="59"/>
-      <c r="T163" s="59"/>
-      <c r="U163" s="59"/>
+      <c r="S163" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="T163" s="59">
+        <v>0</v>
+      </c>
+      <c r="U163" s="59">
+        <v>0</v>
+      </c>
       <c r="V163" s="59"/>
       <c r="W163" s="59"/>
       <c r="X163" s="59"/>
@@ -28860,10 +29262,28 @@
       <c r="A165" s="2">
         <v>41785</v>
       </c>
+      <c r="S165" t="s">
+        <v>47</v>
+      </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>41786</v>
+      </c>
+      <c r="S166" t="s">
+        <v>47</v>
+      </c>
+      <c r="T166">
+        <v>1</v>
+      </c>
+      <c r="U166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -30013,15 +30433,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="C74:Z74"/>
-    <mergeCell ref="C107:Z107"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="I2:K2"/>
@@ -30038,6 +30449,15 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="C107:Z107"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30059,11 +30479,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="78">
         <v>41675</v>
       </c>
@@ -30077,11 +30497,11 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="78">
         <v>41703</v>
       </c>
@@ -30104,82 +30524,82 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73">
         <f>SUM(E11:E375)+SUM(I11:I375)+SUM(M11:M375)+SUM(Q11:Q375)+SUM(U11:U375)+SUM(Z11:Z375)</f>
         <v>3.5</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>4.75</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -32151,13 +32571,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="I2:K2"/>
@@ -32171,6 +32584,13 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Suivi-2014.xlsx
+++ b/Suivi-2014.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="lite des projet" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -129,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Notaire avec dev</t>
@@ -144,7 +144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -153,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Notaire avec dev</t>
@@ -168,7 +168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -177,7 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Correction Menu</t>
@@ -192,7 +192,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -201,7 +201,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Test + IE8 + Szcroll page press</t>
@@ -1594,7 +1594,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1603,7 +1603,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - LGFP-1907
@@ -1619,7 +1619,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1628,7 +1628,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Passasiojn Taieb
@@ -1644,7 +1644,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1653,7 +1653,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - ZEUS-2131
@@ -1671,7 +1671,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1680,7 +1680,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - LGFP-2404 Estmation 5J (recherche + analyse)
@@ -1696,7 +1696,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1705,7 +1705,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2404</t>
@@ -1720,7 +1720,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1729,7 +1729,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2381</t>
@@ -1744,7 +1744,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1753,7 +1753,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-1907
@@ -1769,7 +1769,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1778,7 +1778,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extension Chrome</t>
@@ -1793,7 +1793,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1802,7 +1802,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2381</t>
@@ -1817,7 +1817,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1826,7 +1826,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2404</t>
@@ -1841,7 +1841,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1850,7 +1850,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2404</t>
@@ -1865,7 +1865,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1874,7 +1874,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Estimation 2 ticket LGFP-2439 / LGFP-2440</t>
@@ -1889,7 +1889,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1898,7 +1898,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2404
@@ -1914,7 +1914,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1923,7 +1923,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2390</t>
@@ -1938,7 +1938,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1947,7 +1947,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2390 0,5</t>
@@ -1962,7 +1962,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1971,7 +1971,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2390</t>
@@ -1986,7 +1986,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -1995,7 +1995,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2390 0,5
@@ -2011,7 +2011,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2020,7 +2020,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2390
@@ -2036,7 +2036,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2045,7 +2045,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Demande SIRCOM</t>
@@ -2060,7 +2060,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2069,7 +2069,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1- LGFP-2390 -Treaitement des demandes pour OGPE
@@ -2085,7 +2085,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2094,7 +2094,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 problème de VPN</t>
@@ -2109,7 +2109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2118,7 +2118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PFE .NET</t>
@@ -2133,7 +2133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2142,7 +2142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Probleme VPN
@@ -2159,7 +2159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2168,7 +2168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Probleme VPN
@@ -2184,7 +2184,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2193,7 +2193,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dicod</t>
@@ -2208,7 +2208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2217,7 +2217,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2439</t>
@@ -2280,7 +2280,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2289,7 +2289,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2440</t>
@@ -2304,7 +2304,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2313,7 +2313,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2440
@@ -2329,7 +2329,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2338,7 +2338,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2513</t>
@@ -2353,7 +2353,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2362,7 +2362,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Dicod</t>
@@ -2377,7 +2377,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2386,7 +2386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Livraison Dicod
@@ -2402,7 +2402,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2411,7 +2411,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2455
@@ -2428,7 +2428,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2437,7 +2437,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PFE interface (Amal)
@@ -2453,7 +2453,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2462,7 +2462,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2464  dorain n'est pas disponible
@@ -2478,7 +2478,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2487,7 +2487,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interface PFE (Amin)
@@ -2503,7 +2503,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2512,7 +2512,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2468
@@ -2531,7 +2531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2540,7 +2540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Notaire : intevention direct
@@ -2556,7 +2556,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2565,7 +2565,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2467
@@ -2581,7 +2581,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2590,7 +2590,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Sircom : RWD Collection
@@ -2606,7 +2606,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Anis Abid:
 </t>
@@ -2616,7 +2616,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LGFP-2224
 LGFP-2468</t>
@@ -2631,7 +2631,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2640,7 +2640,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2655,7 +2655,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2664,7 +2664,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2526
@@ -2680,7 +2680,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2689,7 +2689,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2527
@@ -2705,7 +2705,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2714,7 +2714,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2549
@@ -2730,7 +2730,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2739,7 +2739,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Sircom (Nouveau PSD)
@@ -2755,7 +2755,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2764,7 +2764,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2534</t>
@@ -2779,7 +2779,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2788,7 +2788,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - OGPE Fêtes des pères LeGuide</t>
@@ -2803,7 +2803,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2812,7 +2812,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - AngularJS</t>
@@ -2827,7 +2827,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2836,7 +2836,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Leguide Produit</t>
@@ -2851,7 +2851,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2860,7 +2860,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - JS Menuiserie
@@ -2876,7 +2876,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Anis Abid:
 </t>
@@ -2886,7 +2886,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LGFP-2569
 LGFP-2305
@@ -2902,7 +2902,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2911,10 +2911,35 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Sifast</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G165" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Soutenance  Molka
+- LGFP-2570</t>
         </r>
       </text>
     </comment>
@@ -2926,7 +2951,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2935,12 +2960,37 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2570
 LGFP-2305
 LGFP-2522</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G166" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Notaire
+- Stagaire Marwa Style recrutement</t>
         </r>
       </text>
     </comment>
@@ -2952,7 +3002,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anis Abid:</t>
         </r>
@@ -2961,10 +3011,1367 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LGFP-2524</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G167" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2580</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S167" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2549
+LGFP-2570
+LGFP-2524</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G168" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2580
+LGFP-2556
+Notaire : compotement click tablet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S168" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2580
+LGFP-2556
+LGFP-2525
+LGFP-2594</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G169" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2594</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S169" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+configuration 172.16.0.128 A
+Test des tiquet avec Mohamed Cherfi
+LGFP-2556 en to-specify
+LGFP-2594 
+LGFP-2596</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C174" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Configuration Machine
+- Intervension Notaire.fr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K174" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Intervension Notaire.fr 0,25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S174" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2596
+LGFP-2549
+LGFP-2580
+LGFP-2305</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C175" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Configuration Machine
+- LGFP-2608</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K175" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Intervension Notaire.fr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S175" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2305</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C176" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Intervension .net
+LGFP-2608
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G176" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2608</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K176" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Intervension Notaire.fr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S176" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2305 (tab et Test)
+LGFP-2601
+LGFP-2583 (25%)
+LGFP-2608</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C177" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Configuration environnement ZEUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K177" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Intevension Notaire.fr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S177" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2305
+LGFP-2583</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S178" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2583
+LGFP-2603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G181" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2603 (test)
+- LGFP-2569</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S181" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Bug Home.js
+- LGFP-2603 (test)
+- LGFP-2569
+- LGFP-2593</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G182" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2593</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S182" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2593</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G183" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2593 (retours)
+LGFP-2631
+LGFP-2638
+LGFP-2639 Analyse</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S183" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2593 (retours)
+LGFP-2631
+LGFP-2638
+LGFP-2639 Analyse</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G184" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2525
+LGFP-2593 (retour)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S184" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2638
+LGFP-2525
+LGFP-2593 (retour)
+LGFP-2590</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G185" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2643
+LGFP-2468
+LGFP-2543
+LGFP-2590
+LGFP-2639 (analyse)
+LGFP-2650 (analyse)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S185" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2468
+LGFP-2543
+LGFP-2639 (analyse)
+LGFP-2650 (analyse)
+LGFP-2590
+LGFP-2643
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G188" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2525</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S188" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2525
+LGFP-2593</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G189" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2468
+LGFP-2593 (retour)
+LGFP-2305 (Bloked  telnet 10.1.129.50 8000)
+LGFP-2650 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S189" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2593
+- LGFP-2305 (Blocked telnet 10.1.129.50 8000)
+- LGFP-2468
+- LGFP-2640 Demande Bruno V6 http://local.v6.leguide.com/app_dev.php/s/w/Canon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G190" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2482 (blocked)
+- LGFP-2630 (Box responsive)
+- LGFP-2464 (m.WM)
+- LGFP-2635 (Box Shopping)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S190" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2482 (blocked)
+- LGFP-2630 (Box responsive)
+- LGFP-2464 (m.WM)
+- LGFP-2635 (Box Shopping)
+- Intervension sur V6 pour les marge</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G191" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2305 (V6 fiche marchand)
+- LGFP-2664
+- LGFP-2661</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S191" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2305 (V6 fiche marchand)
+- LGFP-2635 (retour hebergement)
+- LGFP-2661
+- LGFP-2664</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S195" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2653 (urgence)
+- LGFP-2224
+- LGFP-2656
+- LGFP-2644 (to-spicifia)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G196" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2653 (coupe du monde)
+- LGFP-2667 (Zip ajouter)
+- LGFP-2673 (Solde Yves)
+- LGFP-2674 (Solde Yves)
+- LGFP-2675 (Solde Yves)
+- LGFP-2676 (Solde Yves)
+- LGFP-2678 (Solde Yves)
+- LGFP-2305 (V6 probleme path sur le stage)
+- LGFP-2482 (Anlyse)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S196" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2653 (coupe du monde)
+- LGFP-2667 (Zip ajouter)
+- LGFP-2673 (Solde Yves)
+- LGFP-2674 (Solde Yves)
+- LGFP-2675 (Solde Yves)
+- LGFP-2676 (Solde Yves)
+- LGFP-2678 (Solde Yves)
+- LGFP-2305 (V6 probleme path sur le stage)
+- LGFP-2482 (Anlyse)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S198" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2682 (Probleme Prod)
+- LGFP-2650 (Shoping Box TPL)
+- LGFP-2681 (Leguide mobile Vu avec Bruno problème Prod)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S202" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2676 : shopping Soldes NouvelObs
+- LGFP-2678 : [Soldes Lemonde] Problème menu déroulant
+- LGFP-2681 : bug clic m.leguide.com
+- LGFP-2482 : BUG - régression v5 - bouton recherche iPad
+- LGFP-2650 : [Tiscali] Intégration shopping box 304x122 (to specify)
+- LGFP-2688 : [Soldes 20minutes] Problème affichage pagination
+- LGFP-2680 : [Soldes Leplus] Problème affichage page Soldes
+- LGFP-2686 : [Bakeca] Problème d'affichage du prix</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S205" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2695 :: [Affaritaliani] Box HTML Diaporama
+- LGFP-2644 :: [Femme Actuelle] Intégration Chaine Shopping =&gt; Analyse je dois parler avec Yves
+- LGFP-2676 :: [Soldes NouvelObs] Retrait de barre de navigation shopping =&gt; corriger
+- LGFP-2678 :: [Soldes Lemonde] Problème menu déroulant =&gt; non reproductible
+- LGFP-2694 :: Rajouter une ligne dans la page dédiée blacklist.me sur leguide.com</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S206" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2667 :: [Soldes NouvelObs] Retrait de barre de navigation shopping
+- LGFP-2650 :: [Tiscali] Intégration shopping box 304x122 =&gt; problème de sout d'offres
+- LGFP-2681 :: bug clic m.leguide.com =&gt; Ok sur Stage
+- LGFP-2482 :: BUG - régression v5 - bouton recherche iPad =&gt; corriger
+- LGFP-2632 :: Gestion des mages paramétrables V6
+- LGFP-2650 :: [Tiscali] Intégration shopping box 304x122 =&gt; correction script</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S207" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2644 :: </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S211" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2676 :: [Soldes NouvelObs] Retrait de barre de navigation shopping
+- LGFP-2656 :: [WebApp] Générer de nouveau Logos sans extension
+- LGFP-2712 :: Analyse :: Fonctionnement Visionneuse HP - LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S212" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2712 :: Fonctionnement Visionneuse HP - LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S219" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2440 :: Webapp - Page fiche point de vente (intégration) retour test
+- LGFP-734 :: {Webapp choozen} Page de Résultats
+- LGFP-2656 :: [WebApp] Générer de nouveau Logos sans extension (Blocked Galaxy Node ii) to-specify Chez Lital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S220" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2440 :: Webapp - Page fiche point de vente (intégration) retour test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S221" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2440-2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S227" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2440-2</t>
         </r>
       </text>
     </comment>
@@ -3043,7 +4450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="188">
   <si>
     <t>Notaires.fr</t>
   </si>
@@ -3605,12 +5012,42 @@
   <si>
     <t>SiFAST</t>
   </si>
+  <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>Notaire</t>
+  </si>
+  <si>
+    <t>Selfcere</t>
+  </si>
+  <si>
+    <t>Selfacre</t>
+  </si>
+  <si>
+    <t>maladie</t>
+  </si>
+  <si>
+    <t>LG  / SGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgence </t>
+  </si>
+  <si>
+    <t>congé</t>
+  </si>
+  <si>
+    <t>jours férie</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3693,26 +5130,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3836,6 +5267,12 @@
       <patternFill patternType="darkDown">
         <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -3993,7 +5430,7 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4111,12 +5548,15 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4131,22 +5571,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4154,12 +5600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4559,19 +5999,19 @@
       <c r="C5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="88" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4580,27 +6020,27 @@
         <v>145</v>
       </c>
       <c r="C6" s="64"/>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="89" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="86"/>
+      <c r="B7" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="91"/>
       <c r="D7" s="65">
         <f>SUM('Notaires.fr Imputation'!D70:D100)</f>
         <v>4.25</v>
@@ -4623,10 +6063,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="65">
         <f>SUM(Sofrecom.com!D70:D100)</f>
         <v>0</v>
@@ -4649,10 +6089,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="65">
         <f>SUM(LeGuide!D75:D105)</f>
         <v>0</v>
@@ -4675,10 +6115,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="65">
         <f>SUM(Sircom!D70:D100)</f>
         <v>0</v>
@@ -4701,10 +6141,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="65">
         <f>SUM('Notaires.fr Imputation'!D74:D104)</f>
         <v>4.25</v>
@@ -4758,16 +6198,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8491,15 +9931,15 @@
       </c>
       <c r="C159">
         <f>'Notaires.fr Imputation'!H156+Sofrecom.com!H156+LeGuide!H165+PFE!H156+Sircom!H156</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D159">
         <f>'Notaires.fr Imputation'!L156+Sofrecom.com!L156+LeGuide!L165+PFE!L156+Sircom!L156</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <f>'Notaires.fr Imputation'!P156+Sofrecom.com!P156+LeGuide!P165+PFE!P156+Sircom!P156</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
         <f>'Notaires.fr Imputation'!T156+Sofrecom.com!T156+LeGuide!T165+PFE!T156+Sircom!T156</f>
@@ -8516,15 +9956,15 @@
       </c>
       <c r="C160">
         <f>'Notaires.fr Imputation'!H157+Sofrecom.com!H157+LeGuide!H166+PFE!H157+Sircom!H157</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D160">
         <f>'Notaires.fr Imputation'!L157+Sofrecom.com!L157+LeGuide!L166+PFE!L157+Sircom!L157</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160">
         <f>'Notaires.fr Imputation'!P157+Sofrecom.com!P157+LeGuide!P166+PFE!P157+Sircom!P157</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
         <f>'Notaires.fr Imputation'!T157+Sofrecom.com!T157+LeGuide!T166+PFE!T157+Sircom!T157</f>
@@ -8541,19 +9981,19 @@
       </c>
       <c r="C161">
         <f>'Notaires.fr Imputation'!H158+Sofrecom.com!H158+LeGuide!H167+PFE!H158+Sircom!H158</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <f>'Notaires.fr Imputation'!L158+Sofrecom.com!L158+LeGuide!L167+PFE!L158+Sircom!L158</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <f>'Notaires.fr Imputation'!P158+Sofrecom.com!P158+LeGuide!P167+PFE!P158+Sircom!P158</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
         <f>'Notaires.fr Imputation'!T158+Sofrecom.com!T158+LeGuide!T167+PFE!T158+Sircom!T158</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8566,19 +10006,19 @@
       </c>
       <c r="C162">
         <f>'Notaires.fr Imputation'!H159+Sofrecom.com!H159+LeGuide!H168+PFE!H159+Sircom!H159</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <f>'Notaires.fr Imputation'!L159+Sofrecom.com!L159+LeGuide!L168+PFE!L159+Sircom!L159</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <f>'Notaires.fr Imputation'!P159+Sofrecom.com!P159+LeGuide!P168+PFE!P159+Sircom!P159</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
         <f>'Notaires.fr Imputation'!T159+Sofrecom.com!T159+LeGuide!T168+PFE!T159+Sircom!T159</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8591,19 +10031,19 @@
       </c>
       <c r="C163">
         <f>'Notaires.fr Imputation'!H160+Sofrecom.com!H160+LeGuide!H169+PFE!H160+Sircom!H160</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <f>'Notaires.fr Imputation'!L160+Sofrecom.com!L160+LeGuide!L169+PFE!L160+Sircom!L160</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163">
         <f>'Notaires.fr Imputation'!P160+Sofrecom.com!P160+LeGuide!P169+PFE!P160+Sircom!P160</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
         <f>'Notaires.fr Imputation'!T160+Sofrecom.com!T160+LeGuide!T169+PFE!T160+Sircom!T160</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8666,19 +10106,19 @@
       </c>
       <c r="C166">
         <f>'Notaires.fr Imputation'!H163+Sofrecom.com!H163+LeGuide!H174+PFE!H163+Sircom!H163</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <f>'Notaires.fr Imputation'!L163+Sofrecom.com!L163+LeGuide!L174+PFE!L163+Sircom!L163</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
         <f>'Notaires.fr Imputation'!P163+Sofrecom.com!P163+LeGuide!P174+PFE!P163+Sircom!P163</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
         <f>'Notaires.fr Imputation'!T163+Sofrecom.com!T163+LeGuide!T174+PFE!T163+Sircom!T163</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8695,15 +10135,15 @@
       </c>
       <c r="D167">
         <f>'Notaires.fr Imputation'!L164+Sofrecom.com!L164+LeGuide!L175+PFE!L164+Sircom!L164</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <f>'Notaires.fr Imputation'!P164+Sofrecom.com!P164+LeGuide!P175+PFE!P164+Sircom!P164</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
         <f>'Notaires.fr Imputation'!T164+Sofrecom.com!T164+LeGuide!T175+PFE!T164+Sircom!T164</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8716,19 +10156,19 @@
       </c>
       <c r="C168">
         <f>'Notaires.fr Imputation'!H165+Sofrecom.com!H165+LeGuide!H176+PFE!H165+Sircom!H165</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <f>'Notaires.fr Imputation'!L165+Sofrecom.com!L165+LeGuide!L176+PFE!L165+Sircom!L165</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <f>'Notaires.fr Imputation'!P165+Sofrecom.com!P165+LeGuide!P176+PFE!P165+Sircom!P165</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
         <f>'Notaires.fr Imputation'!T165+Sofrecom.com!T165+LeGuide!T176+PFE!T165+Sircom!T165</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8741,19 +10181,19 @@
       </c>
       <c r="C169">
         <f>'Notaires.fr Imputation'!H166+Sofrecom.com!H166+LeGuide!H177+PFE!H166+Sircom!H166</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <f>'Notaires.fr Imputation'!L166+Sofrecom.com!L166+LeGuide!L177+PFE!L166+Sircom!L166</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <f>'Notaires.fr Imputation'!P166+Sofrecom.com!P166+LeGuide!P177+PFE!P166+Sircom!P166</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
         <f>'Notaires.fr Imputation'!T166+Sofrecom.com!T166+LeGuide!T177+PFE!T166+Sircom!T166</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8766,19 +10206,19 @@
       </c>
       <c r="C170">
         <f>'Notaires.fr Imputation'!H167+Sofrecom.com!H167+LeGuide!H178+PFE!H167+Sircom!H167</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <f>'Notaires.fr Imputation'!L167+Sofrecom.com!L167+LeGuide!L178+PFE!L167+Sircom!L167</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <f>'Notaires.fr Imputation'!P167+Sofrecom.com!P167+LeGuide!P178+PFE!P167+Sircom!P167</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
         <f>'Notaires.fr Imputation'!T167+Sofrecom.com!T167+LeGuide!T178+PFE!T167+Sircom!T167</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8841,19 +10281,19 @@
       </c>
       <c r="C173">
         <f>'Notaires.fr Imputation'!H170+Sofrecom.com!H170+LeGuide!H181+PFE!H170+Sircom!H170</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <f>'Notaires.fr Imputation'!L170+Sofrecom.com!L170+LeGuide!L181+PFE!L170+Sircom!L170</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173">
         <f>'Notaires.fr Imputation'!P170+Sofrecom.com!P170+LeGuide!P181+PFE!P170+Sircom!P170</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
         <f>'Notaires.fr Imputation'!T170+Sofrecom.com!T170+LeGuide!T181+PFE!T170+Sircom!T170</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8866,19 +10306,19 @@
       </c>
       <c r="C174">
         <f>'Notaires.fr Imputation'!H171+Sofrecom.com!H171+LeGuide!H182+PFE!H171+Sircom!H171</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <f>'Notaires.fr Imputation'!L171+Sofrecom.com!L171+LeGuide!L182+PFE!L171+Sircom!L171</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <f>'Notaires.fr Imputation'!P171+Sofrecom.com!P171+LeGuide!P182+PFE!P171+Sircom!P171</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
         <f>'Notaires.fr Imputation'!T171+Sofrecom.com!T171+LeGuide!T182+PFE!T171+Sircom!T171</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8891,19 +10331,19 @@
       </c>
       <c r="C175">
         <f>'Notaires.fr Imputation'!H172+Sofrecom.com!H172+LeGuide!H183+PFE!H172+Sircom!H172</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175">
         <f>'Notaires.fr Imputation'!L172+Sofrecom.com!L172+LeGuide!L183+PFE!L172+Sircom!L172</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <f>'Notaires.fr Imputation'!P172+Sofrecom.com!P172+LeGuide!P183+PFE!P172+Sircom!P172</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
         <f>'Notaires.fr Imputation'!T172+Sofrecom.com!T172+LeGuide!T183+PFE!T172+Sircom!T172</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8916,19 +10356,19 @@
       </c>
       <c r="C176">
         <f>'Notaires.fr Imputation'!H173+Sofrecom.com!H173+LeGuide!H184+PFE!H173+Sircom!H173</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <f>'Notaires.fr Imputation'!L173+Sofrecom.com!L173+LeGuide!L184+PFE!L173+Sircom!L173</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <f>'Notaires.fr Imputation'!P173+Sofrecom.com!P173+LeGuide!P184+PFE!P173+Sircom!P173</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
         <f>'Notaires.fr Imputation'!T173+Sofrecom.com!T173+LeGuide!T184+PFE!T173+Sircom!T173</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8941,19 +10381,19 @@
       </c>
       <c r="C177">
         <f>'Notaires.fr Imputation'!H174+Sofrecom.com!H174+LeGuide!H185+PFE!H174+Sircom!H174</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <f>'Notaires.fr Imputation'!L174+Sofrecom.com!L174+LeGuide!L185+PFE!L174+Sircom!L174</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <f>'Notaires.fr Imputation'!P174+Sofrecom.com!P174+LeGuide!P185+PFE!P174+Sircom!P174</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
         <f>'Notaires.fr Imputation'!T174+Sofrecom.com!T174+LeGuide!T185+PFE!T174+Sircom!T174</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9016,19 +10456,19 @@
       </c>
       <c r="C180">
         <f>'Notaires.fr Imputation'!H177+Sofrecom.com!H177+LeGuide!H188+PFE!H177+Sircom!H177</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <f>'Notaires.fr Imputation'!L177+Sofrecom.com!L177+LeGuide!L188+PFE!L177+Sircom!L177</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180">
         <f>'Notaires.fr Imputation'!P177+Sofrecom.com!P177+LeGuide!P188+PFE!P177+Sircom!P177</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
         <f>'Notaires.fr Imputation'!T177+Sofrecom.com!T177+LeGuide!T188+PFE!T177+Sircom!T177</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9041,19 +10481,19 @@
       </c>
       <c r="C181">
         <f>'Notaires.fr Imputation'!H178+Sofrecom.com!H178+LeGuide!H189+PFE!H178+Sircom!H178</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <f>'Notaires.fr Imputation'!L178+Sofrecom.com!L178+LeGuide!L189+PFE!L178+Sircom!L178</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
         <f>'Notaires.fr Imputation'!P178+Sofrecom.com!P178+LeGuide!P189+PFE!P178+Sircom!P178</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
         <f>'Notaires.fr Imputation'!T178+Sofrecom.com!T178+LeGuide!T189+PFE!T178+Sircom!T178</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9066,19 +10506,19 @@
       </c>
       <c r="C182">
         <f>'Notaires.fr Imputation'!H179+Sofrecom.com!H179+LeGuide!H190+PFE!H179+Sircom!H179</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <f>'Notaires.fr Imputation'!L179+Sofrecom.com!L179+LeGuide!L190+PFE!L179+Sircom!L179</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182">
         <f>'Notaires.fr Imputation'!P179+Sofrecom.com!P179+LeGuide!P190+PFE!P179+Sircom!P179</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
         <f>'Notaires.fr Imputation'!T179+Sofrecom.com!T179+LeGuide!T190+PFE!T179+Sircom!T179</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9091,19 +10531,19 @@
       </c>
       <c r="C183">
         <f>'Notaires.fr Imputation'!H180+Sofrecom.com!H180+LeGuide!H191+PFE!H180+Sircom!H180</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <f>'Notaires.fr Imputation'!L180+Sofrecom.com!L180+LeGuide!L191+PFE!L180+Sircom!L180</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183">
         <f>'Notaires.fr Imputation'!P180+Sofrecom.com!P180+LeGuide!P191+PFE!P180+Sircom!P180</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
         <f>'Notaires.fr Imputation'!T180+Sofrecom.com!T180+LeGuide!T191+PFE!T180+Sircom!T180</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9120,15 +10560,15 @@
       </c>
       <c r="D184">
         <f>'Notaires.fr Imputation'!L181+Sofrecom.com!L181+LeGuide!L192+PFE!L181+Sircom!L181</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184">
         <f>'Notaires.fr Imputation'!P181+Sofrecom.com!P181+LeGuide!P192+PFE!P181+Sircom!P181</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
         <f>'Notaires.fr Imputation'!T181+Sofrecom.com!T181+LeGuide!T192+PFE!T181+Sircom!T181</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9191,19 +10631,19 @@
       </c>
       <c r="C187">
         <f>'Notaires.fr Imputation'!H184+Sofrecom.com!H184+LeGuide!H195+PFE!H184+Sircom!H184</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187">
         <f>'Notaires.fr Imputation'!L184+Sofrecom.com!L184+LeGuide!L195+PFE!L184+Sircom!L184</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <f>'Notaires.fr Imputation'!P184+Sofrecom.com!P184+LeGuide!P195+PFE!P184+Sircom!P184</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <f>'Notaires.fr Imputation'!T184+Sofrecom.com!T184+LeGuide!T195+PFE!T184+Sircom!T184</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9216,19 +10656,19 @@
       </c>
       <c r="C188">
         <f>'Notaires.fr Imputation'!H185+Sofrecom.com!H185+LeGuide!H196+PFE!H185+Sircom!H185</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <f>'Notaires.fr Imputation'!L185+Sofrecom.com!L185+LeGuide!L196+PFE!L185+Sircom!L185</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188">
         <f>'Notaires.fr Imputation'!P185+Sofrecom.com!P185+LeGuide!P196+PFE!P185+Sircom!P185</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
         <f>'Notaires.fr Imputation'!T185+Sofrecom.com!T185+LeGuide!T196+PFE!T185+Sircom!T185</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9241,19 +10681,19 @@
       </c>
       <c r="C189">
         <f>'Notaires.fr Imputation'!H186+Sofrecom.com!H186+LeGuide!H197+PFE!H186+Sircom!H186</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <f>'Notaires.fr Imputation'!L186+Sofrecom.com!L186+LeGuide!L197+PFE!L186+Sircom!L186</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189">
         <f>'Notaires.fr Imputation'!P186+Sofrecom.com!P186+LeGuide!P197+PFE!P186+Sircom!P186</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
         <f>'Notaires.fr Imputation'!T186+Sofrecom.com!T186+LeGuide!T197+PFE!T186+Sircom!T186</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9266,19 +10706,19 @@
       </c>
       <c r="C190">
         <f>'Notaires.fr Imputation'!H187+Sofrecom.com!H187+LeGuide!H198+PFE!H187+Sircom!H187</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <f>'Notaires.fr Imputation'!L187+Sofrecom.com!L187+LeGuide!L198+PFE!L187+Sircom!L187</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190">
         <f>'Notaires.fr Imputation'!P187+Sofrecom.com!P187+LeGuide!P198+PFE!P187+Sircom!P187</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
         <f>'Notaires.fr Imputation'!T187+Sofrecom.com!T187+LeGuide!T198+PFE!T187+Sircom!T187</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9291,11 +10731,11 @@
       </c>
       <c r="C191">
         <f>'Notaires.fr Imputation'!H188+Sofrecom.com!H188+LeGuide!H199+PFE!H188+Sircom!H188</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <f>'Notaires.fr Imputation'!L188+Sofrecom.com!L188+LeGuide!L199+PFE!L188+Sircom!L188</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <f>'Notaires.fr Imputation'!P188+Sofrecom.com!P188+LeGuide!P199+PFE!P188+Sircom!P188</f>
@@ -9303,7 +10743,7 @@
       </c>
       <c r="F191">
         <f>'Notaires.fr Imputation'!T188+Sofrecom.com!T188+LeGuide!T199+PFE!T188+Sircom!T188</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9366,7 +10806,7 @@
       </c>
       <c r="C194">
         <f>'Notaires.fr Imputation'!H191+Sofrecom.com!H191+LeGuide!H202+PFE!H191+Sircom!H191</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <f>'Notaires.fr Imputation'!L191+Sofrecom.com!L191+LeGuide!L202+PFE!L191+Sircom!L191</f>
@@ -9378,7 +10818,7 @@
       </c>
       <c r="F194">
         <f>'Notaires.fr Imputation'!T191+Sofrecom.com!T191+LeGuide!T202+PFE!T191+Sircom!T191</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9391,7 +10831,7 @@
       </c>
       <c r="C195">
         <f>'Notaires.fr Imputation'!H192+Sofrecom.com!H192+LeGuide!H205+PFE!H192+Sircom!H192</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <f>'Notaires.fr Imputation'!L192+Sofrecom.com!L192+LeGuide!L205+PFE!L192+Sircom!L192</f>
@@ -9403,7 +10843,7 @@
       </c>
       <c r="F195">
         <f>'Notaires.fr Imputation'!T192+Sofrecom.com!T192+LeGuide!T205+PFE!T192+Sircom!T192</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9416,7 +10856,7 @@
       </c>
       <c r="C196">
         <f>'Notaires.fr Imputation'!H193+Sofrecom.com!H193+LeGuide!H206+PFE!H193+Sircom!H193</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <f>'Notaires.fr Imputation'!L193+Sofrecom.com!L193+LeGuide!L206+PFE!L193+Sircom!L193</f>
@@ -9428,7 +10868,7 @@
       </c>
       <c r="F196">
         <f>'Notaires.fr Imputation'!T193+Sofrecom.com!T193+LeGuide!T206+PFE!T193+Sircom!T193</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9441,7 +10881,7 @@
       </c>
       <c r="C197">
         <f>'Notaires.fr Imputation'!H194+Sofrecom.com!H194+LeGuide!H207+PFE!H194+Sircom!H194</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <f>'Notaires.fr Imputation'!L194+Sofrecom.com!L194+LeGuide!L207+PFE!L194+Sircom!L194</f>
@@ -9453,7 +10893,7 @@
       </c>
       <c r="F197">
         <f>'Notaires.fr Imputation'!T194+Sofrecom.com!T194+LeGuide!T207+PFE!T194+Sircom!T194</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9553,7 +10993,7 @@
       </c>
       <c r="F201">
         <f>'Notaires.fr Imputation'!T198+Sofrecom.com!T198+LeGuide!T211+PFE!T198+Sircom!T198</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9578,7 +11018,7 @@
       </c>
       <c r="F202">
         <f>'Notaires.fr Imputation'!T199+Sofrecom.com!T199+LeGuide!T212+PFE!T199+Sircom!T199</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9753,7 +11193,7 @@
       </c>
       <c r="F209">
         <f>'Notaires.fr Imputation'!T206+Sofrecom.com!T206+LeGuide!T219+PFE!T206+Sircom!T206</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9778,7 +11218,7 @@
       </c>
       <c r="F210">
         <f>'Notaires.fr Imputation'!T207+Sofrecom.com!T207+LeGuide!T220+PFE!T207+Sircom!T207</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9803,7 +11243,7 @@
       </c>
       <c r="F211">
         <f>'Notaires.fr Imputation'!T208+Sofrecom.com!T208+LeGuide!T221+PFE!T208+Sircom!T208</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9953,7 +11393,7 @@
       </c>
       <c r="F217">
         <f>'Notaires.fr Imputation'!T214+Sofrecom.com!T214+LeGuide!T227+PFE!T214+Sircom!T214</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14027,128 +15467,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="78">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="81">
         <v>41675</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="S2" s="75" t="s">
+      <c r="M2" s="77"/>
+      <c r="S2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="75"/>
+      <c r="T2" s="78"/>
       <c r="U2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="78">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="81">
         <v>41703</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="S3" s="76" t="s">
+      <c r="M3" s="77"/>
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="76"/>
+      <c r="T3" s="79"/>
       <c r="U3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="77"/>
+      <c r="T4" s="80"/>
       <c r="U4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77">
         <v>14</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="B6" s="66"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>36.75</v>
       </c>
-      <c r="M6" s="73"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77">
         <f>L5-L6</f>
         <v>-22.75</v>
       </c>
-      <c r="M7" s="73"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="76" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14156,7 +15596,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -14217,7 +15657,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="79"/>
+      <c r="AB10" s="76"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -18678,18 +20118,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
@@ -18699,6 +20127,18 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18727,11 +20167,11 @@
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
@@ -19027,14 +20467,14 @@
       <c r="B23" s="24">
         <v>68673</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="24" t="s">
         <v>66</v>
       </c>
@@ -19043,28 +20483,28 @@
       <c r="B24" s="26">
         <v>68489</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="24">
         <v>68556</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
       <c r="I25" s="24" t="s">
         <v>66</v>
       </c>
@@ -19079,14 +20519,14 @@
       <c r="B26" s="24">
         <v>68593</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
       <c r="I26" s="24" t="s">
         <v>66</v>
       </c>
@@ -19101,14 +20541,14 @@
       <c r="B27" s="26">
         <v>68672</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="27" t="s">
         <v>69</v>
       </c>
@@ -19139,14 +20579,14 @@
       <c r="B29" s="26">
         <v>68666</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
       <c r="I29" s="26" t="s">
         <v>69</v>
       </c>
@@ -19161,14 +20601,14 @@
       <c r="B30" s="26">
         <v>68670</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
       <c r="I30" s="26" t="s">
         <v>69</v>
       </c>
@@ -19183,12 +20623,12 @@
       <c r="B31" s="26">
         <v>68697</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
       <c r="I31" s="26" t="s">
         <v>69</v>
       </c>
@@ -19201,6 +20641,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C29:H29"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C23:H23"/>
@@ -19208,11 +20653,6 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19856,131 +21296,131 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="78">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="81">
         <v>41675</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="S2" s="75" t="s">
+      <c r="M2" s="77"/>
+      <c r="S2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="75"/>
+      <c r="T2" s="78"/>
       <c r="U2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="78">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="81">
         <v>41703</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="S3" s="76" t="s">
+      <c r="M3" s="77"/>
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="76"/>
+      <c r="T3" s="79"/>
       <c r="U3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="77"/>
+      <c r="T4" s="80"/>
       <c r="U4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77">
         <v>14</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77">
         <v>12</v>
       </c>
-      <c r="M6" s="73"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77">
         <f>L5-L6</f>
         <v>2</v>
       </c>
-      <c r="M7" s="73"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -23859,14 +25299,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="I5:K5"/>
@@ -23879,6 +25311,14 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -23890,10 +25330,10 @@
   <dimension ref="A2:XFA390"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H166" sqref="H166"/>
+      <selection pane="bottomRight" activeCell="T228" sqref="T228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -23914,123 +25354,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="78">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="81">
         <v>41675</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="S2" s="75" t="s">
+      <c r="M2" s="81"/>
+      <c r="S2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="75"/>
+      <c r="T2" s="78"/>
       <c r="U2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="78">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="81">
         <v>41703</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="S3" s="76" t="s">
+      <c r="M3" s="81"/>
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="76"/>
+      <c r="T3" s="79"/>
       <c r="U3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="77"/>
+      <c r="T4" s="80"/>
       <c r="U4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77">
         <f>SUM(E12:E390)+SUM(I12:I390)+SUM(M12:M390)+SUM(Q12:Q390)+SUM(U12:U390)+SUM(Z12:Z390)</f>
-        <v>150</v>
-      </c>
-      <c r="M5" s="73"/>
+        <v>231</v>
+      </c>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77">
         <f>SUM(D12:D390)+SUM(H12:H390)+SUM(L12:L390)+SUM(P12:P390)+SUM(T12:T390)+SUM(Y12:Y390)</f>
-        <v>155.25</v>
-      </c>
-      <c r="M6" s="73"/>
+        <v>262.25</v>
+      </c>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="76" t="s">
         <v>57</v>
       </c>
     </row>
@@ -24038,7 +25478,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -24099,39 +25539,39 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="79"/>
+      <c r="AB10" s="76"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="69"/>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
       <c r="AA11" s="21"/>
       <c r="AB11" s="68"/>
       <c r="AC11" s="21"/>
@@ -26218,32 +27658,32 @@
         <v>163</v>
       </c>
       <c r="B44" s="69"/>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="84"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
     </row>
     <row r="45" spans="1:26" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -26395,32 +27835,32 @@
         <v>156</v>
       </c>
       <c r="B74" s="69"/>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="84"/>
-      <c r="S74" s="84"/>
-      <c r="T74" s="84"/>
-      <c r="U74" s="84"/>
-      <c r="V74" s="84"/>
-      <c r="W74" s="84"/>
-      <c r="X74" s="84"/>
-      <c r="Y74" s="84"/>
-      <c r="Z74" s="84"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="87"/>
+      <c r="L74" s="87"/>
+      <c r="M74" s="87"/>
+      <c r="N74" s="87"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="87"/>
+      <c r="S74" s="87"/>
+      <c r="T74" s="87"/>
+      <c r="U74" s="87"/>
+      <c r="V74" s="87"/>
+      <c r="W74" s="87"/>
+      <c r="X74" s="87"/>
+      <c r="Y74" s="87"/>
+      <c r="Z74" s="87"/>
     </row>
     <row r="75" spans="1:26" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -27361,32 +28801,32 @@
         <v>153</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="84" t="s">
+      <c r="C107" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="D107" s="84"/>
-      <c r="E107" s="84"/>
-      <c r="F107" s="84"/>
-      <c r="G107" s="84"/>
-      <c r="H107" s="84"/>
-      <c r="I107" s="84"/>
-      <c r="J107" s="84"/>
-      <c r="K107" s="84"/>
-      <c r="L107" s="84"/>
-      <c r="M107" s="84"/>
-      <c r="N107" s="84"/>
-      <c r="O107" s="84"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="84"/>
-      <c r="R107" s="84"/>
-      <c r="S107" s="84"/>
-      <c r="T107" s="84"/>
-      <c r="U107" s="84"/>
-      <c r="V107" s="84"/>
-      <c r="W107" s="84"/>
-      <c r="X107" s="84"/>
-      <c r="Y107" s="84"/>
-      <c r="Z107" s="84"/>
+      <c r="D107" s="87"/>
+      <c r="E107" s="87"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="87"/>
+      <c r="H107" s="87"/>
+      <c r="I107" s="87"/>
+      <c r="J107" s="87"/>
+      <c r="K107" s="87"/>
+      <c r="L107" s="87"/>
+      <c r="M107" s="87"/>
+      <c r="N107" s="87"/>
+      <c r="O107" s="87"/>
+      <c r="P107" s="87"/>
+      <c r="Q107" s="87"/>
+      <c r="R107" s="87"/>
+      <c r="S107" s="87"/>
+      <c r="T107" s="87"/>
+      <c r="U107" s="87"/>
+      <c r="V107" s="87"/>
+      <c r="W107" s="87"/>
+      <c r="X107" s="87"/>
+      <c r="Y107" s="87"/>
+      <c r="Z107" s="87"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
@@ -29262,6 +30702,30 @@
       <c r="A165" s="2">
         <v>41785</v>
       </c>
+      <c r="H165">
+        <v>0.5</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="K165" t="s">
+        <v>76</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>60</v>
+      </c>
+      <c r="P165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
       <c r="S165" t="s">
         <v>47</v>
       </c>
@@ -29276,6 +30740,30 @@
       <c r="A166" s="2">
         <v>41786</v>
       </c>
+      <c r="H166">
+        <v>0.5</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>76</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>60</v>
+      </c>
+      <c r="P166">
+        <v>1</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
       <c r="S166" t="s">
         <v>47</v>
       </c>
@@ -29290,15 +30778,123 @@
       <c r="A167" s="2">
         <v>41787</v>
       </c>
-    </row>
-    <row r="168" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>47</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>76</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>60</v>
+      </c>
+      <c r="P167">
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="S167" t="s">
+        <v>47</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>41788</v>
+      </c>
+      <c r="G168" t="s">
+        <v>47</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>76</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>60</v>
+      </c>
+      <c r="P168">
+        <v>1</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="S168" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+      <c r="U168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>41789</v>
+      </c>
+      <c r="G169" t="s">
+        <v>47</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>76</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>60</v>
+      </c>
+      <c r="P169">
+        <v>1</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="S169" t="s">
+        <v>47</v>
+      </c>
+      <c r="T169">
+        <v>1</v>
+      </c>
+      <c r="U169">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -29337,586 +30933,3907 @@
       <c r="A171" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="74"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="74"/>
+      <c r="K171" s="74"/>
+      <c r="L171" s="74"/>
+      <c r="M171" s="74"/>
+      <c r="N171" s="74"/>
+      <c r="O171" s="74"/>
+      <c r="P171" s="74"/>
+      <c r="Q171" s="74"/>
+      <c r="R171" s="74"/>
+      <c r="S171" s="74"/>
+      <c r="T171" s="74"/>
+      <c r="U171" s="74"/>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="173" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="74"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="75"/>
+      <c r="J172" s="74"/>
+      <c r="K172" s="74"/>
+      <c r="L172" s="74"/>
+      <c r="M172" s="74"/>
+      <c r="N172" s="74"/>
+      <c r="O172" s="74"/>
+      <c r="P172" s="74"/>
+      <c r="Q172" s="74"/>
+      <c r="R172" s="74"/>
+      <c r="S172" s="74"/>
+      <c r="T172" s="74"/>
+      <c r="U172" s="74"/>
+    </row>
+    <row r="173" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="56">
         <v>41791</v>
       </c>
-    </row>
-    <row r="174" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="57"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="57"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="57"/>
+      <c r="J173" s="57"/>
+      <c r="K173" s="57"/>
+      <c r="L173" s="57"/>
+      <c r="M173" s="57"/>
+      <c r="N173" s="57"/>
+      <c r="O173" s="57"/>
+      <c r="P173" s="57"/>
+      <c r="Q173" s="57"/>
+      <c r="R173" s="57"/>
+      <c r="S173" s="57"/>
+      <c r="T173" s="57"/>
+      <c r="U173" s="57"/>
+      <c r="V173" s="57"/>
+      <c r="W173" s="57"/>
+      <c r="X173" s="57"/>
+      <c r="Y173" s="57"/>
+      <c r="Z173" s="57"/>
+      <c r="AA173" s="57"/>
+      <c r="AB173" s="57"/>
+    </row>
+    <row r="174" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>41792</v>
       </c>
-    </row>
-    <row r="175" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>47</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>76</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>60</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="S174" t="s">
+        <v>47</v>
+      </c>
+      <c r="T174">
+        <v>1</v>
+      </c>
+      <c r="U174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>41793</v>
       </c>
-    </row>
-    <row r="176" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="G175" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H175" s="53">
+        <v>0</v>
+      </c>
+      <c r="I175" s="53">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>76</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>60</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="S175" t="s">
+        <v>47</v>
+      </c>
+      <c r="T175">
+        <v>1</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>41794</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>178</v>
+      </c>
+      <c r="G176" t="s">
+        <v>47</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="K176" t="s">
+        <v>76</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>60</v>
+      </c>
+      <c r="P176">
+        <v>1</v>
+      </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
+      <c r="S176" t="s">
+        <v>47</v>
+      </c>
+      <c r="T176">
+        <v>1</v>
+      </c>
+      <c r="U176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>41795</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>60</v>
+      </c>
+      <c r="G177" t="s">
+        <v>47</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>76</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>60</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>1</v>
+      </c>
+      <c r="S177" t="s">
+        <v>47</v>
+      </c>
+      <c r="T177">
+        <v>1</v>
+      </c>
+      <c r="U177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>41796</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>47</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
+        <v>76</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>60</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="S178" t="s">
+        <v>47</v>
+      </c>
+      <c r="T178">
+        <v>1</v>
+      </c>
+      <c r="U178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="58">
         <v>41797</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="B179" s="59"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="59"/>
+      <c r="E179" s="59"/>
+      <c r="F179" s="59"/>
+      <c r="G179" s="59"/>
+      <c r="H179" s="59"/>
+      <c r="I179" s="59"/>
+      <c r="J179" s="59"/>
+      <c r="K179" s="59"/>
+      <c r="L179" s="59"/>
+      <c r="M179" s="59"/>
+      <c r="N179" s="59"/>
+      <c r="O179" s="59"/>
+      <c r="P179" s="59"/>
+      <c r="Q179" s="59"/>
+      <c r="R179" s="59"/>
+      <c r="S179" s="59"/>
+      <c r="T179" s="59"/>
+      <c r="U179" s="59"/>
+      <c r="V179" s="59"/>
+      <c r="W179" s="59"/>
+      <c r="X179" s="59"/>
+      <c r="Y179" s="59"/>
+      <c r="Z179" s="59"/>
+      <c r="AA179" s="59"/>
+      <c r="AB179" s="59"/>
+    </row>
+    <row r="180" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="56">
         <v>41798</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="57"/>
+      <c r="J180" s="57"/>
+      <c r="K180" s="57"/>
+      <c r="L180" s="57"/>
+      <c r="M180" s="57"/>
+      <c r="N180" s="57"/>
+      <c r="O180" s="57"/>
+      <c r="P180" s="57"/>
+      <c r="Q180" s="57"/>
+      <c r="R180" s="57"/>
+      <c r="S180" s="57"/>
+      <c r="T180" s="57"/>
+      <c r="U180" s="57"/>
+      <c r="V180" s="57"/>
+      <c r="W180" s="57"/>
+      <c r="X180" s="57"/>
+      <c r="Y180" s="57"/>
+      <c r="Z180" s="57"/>
+      <c r="AA180" s="57"/>
+      <c r="AB180" s="57"/>
+    </row>
+    <row r="181" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>41799</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="74"/>
+      <c r="D181" s="74"/>
+      <c r="E181" s="74"/>
+      <c r="F181" s="74"/>
+      <c r="G181" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H181" s="74">
+        <v>1</v>
+      </c>
+      <c r="I181" s="74">
+        <v>0</v>
+      </c>
+      <c r="J181" s="74"/>
+      <c r="K181" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L181" s="74">
+        <v>1</v>
+      </c>
+      <c r="M181" s="74">
+        <v>1</v>
+      </c>
+      <c r="N181" s="74"/>
+      <c r="O181" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P181" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="74">
+        <v>1</v>
+      </c>
+      <c r="R181" s="74"/>
+      <c r="S181" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T181" s="74">
+        <v>1</v>
+      </c>
+      <c r="U181" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>41800</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="74"/>
+      <c r="G182" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H182" s="74">
+        <v>1</v>
+      </c>
+      <c r="I182" s="74">
+        <v>0</v>
+      </c>
+      <c r="J182" s="74"/>
+      <c r="K182" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="L182" s="74">
+        <v>1</v>
+      </c>
+      <c r="M182" s="74">
+        <v>1</v>
+      </c>
+      <c r="N182" s="74"/>
+      <c r="O182" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P182" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q182" s="74">
+        <v>1</v>
+      </c>
+      <c r="R182" s="74"/>
+      <c r="S182" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T182" s="74">
+        <v>1</v>
+      </c>
+      <c r="U182" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>41801</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="74"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H183" s="74">
+        <v>1</v>
+      </c>
+      <c r="I183" s="74">
+        <v>0</v>
+      </c>
+      <c r="J183" s="74"/>
+      <c r="K183" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="L183" s="74">
+        <v>1</v>
+      </c>
+      <c r="M183" s="74">
+        <v>1</v>
+      </c>
+      <c r="N183" s="74"/>
+      <c r="O183" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P183" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="74">
+        <v>1</v>
+      </c>
+      <c r="R183" s="74"/>
+      <c r="S183" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T183" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="U183" s="74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>41802</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="74"/>
+      <c r="D184" s="74"/>
+      <c r="E184" s="74"/>
+      <c r="F184" s="74"/>
+      <c r="G184" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H184" s="74">
+        <v>1</v>
+      </c>
+      <c r="I184" s="74">
+        <v>0</v>
+      </c>
+      <c r="J184" s="74"/>
+      <c r="K184" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L184" s="74">
+        <v>1</v>
+      </c>
+      <c r="M184" s="74">
+        <v>1</v>
+      </c>
+      <c r="N184" s="74"/>
+      <c r="O184" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P184" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="74">
+        <v>1</v>
+      </c>
+      <c r="R184" s="74"/>
+      <c r="S184" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T184" s="74">
+        <v>1</v>
+      </c>
+      <c r="U184" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>41803</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="C185" s="74"/>
+      <c r="D185" s="74"/>
+      <c r="E185" s="74"/>
+      <c r="F185" s="74"/>
+      <c r="G185" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H185" s="74">
+        <v>1</v>
+      </c>
+      <c r="I185" s="74">
+        <v>0</v>
+      </c>
+      <c r="J185" s="74"/>
+      <c r="K185" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L185" s="74">
+        <v>1</v>
+      </c>
+      <c r="M185" s="74">
+        <v>1</v>
+      </c>
+      <c r="N185" s="74"/>
+      <c r="O185" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P185" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="74">
+        <v>1</v>
+      </c>
+      <c r="R185" s="74"/>
+      <c r="S185" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T185" s="74">
+        <v>1</v>
+      </c>
+      <c r="U185" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="58">
         <v>41804</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="B186" s="59"/>
+      <c r="C186" s="59"/>
+      <c r="D186" s="59"/>
+      <c r="E186" s="59"/>
+      <c r="F186" s="59"/>
+      <c r="G186" s="59"/>
+      <c r="H186" s="59"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="59"/>
+      <c r="L186" s="59"/>
+      <c r="M186" s="59"/>
+      <c r="N186" s="59"/>
+      <c r="O186" s="59"/>
+      <c r="P186" s="59"/>
+      <c r="Q186" s="59"/>
+      <c r="R186" s="59"/>
+      <c r="S186" s="59"/>
+      <c r="T186" s="59"/>
+      <c r="U186" s="59"/>
+      <c r="V186" s="59"/>
+      <c r="W186" s="59"/>
+      <c r="X186" s="59"/>
+      <c r="Y186" s="59"/>
+      <c r="Z186" s="59"/>
+      <c r="AA186" s="59"/>
+      <c r="AB186" s="59"/>
+    </row>
+    <row r="187" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="56">
         <v>41805</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="57"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="57"/>
+      <c r="J187" s="57"/>
+      <c r="K187" s="57"/>
+      <c r="L187" s="57"/>
+      <c r="M187" s="57"/>
+      <c r="N187" s="57"/>
+      <c r="O187" s="57"/>
+      <c r="P187" s="57"/>
+      <c r="Q187" s="57"/>
+      <c r="R187" s="57"/>
+      <c r="S187" s="57"/>
+      <c r="T187" s="57"/>
+      <c r="U187" s="57"/>
+      <c r="V187" s="57"/>
+      <c r="W187" s="57"/>
+      <c r="X187" s="57"/>
+      <c r="Y187" s="57"/>
+      <c r="Z187" s="57"/>
+      <c r="AA187" s="57"/>
+      <c r="AB187" s="57"/>
+    </row>
+    <row r="188" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>41806</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="74"/>
+      <c r="D188" s="74"/>
+      <c r="E188" s="74"/>
+      <c r="F188" s="74"/>
+      <c r="G188" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H188" s="74">
+        <v>1</v>
+      </c>
+      <c r="I188" s="74">
+        <v>0</v>
+      </c>
+      <c r="J188" s="74"/>
+      <c r="K188" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L188" s="74">
+        <v>1</v>
+      </c>
+      <c r="M188" s="74">
+        <v>1</v>
+      </c>
+      <c r="N188" s="74"/>
+      <c r="O188" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P188" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="74">
+        <v>1</v>
+      </c>
+      <c r="R188" s="74"/>
+      <c r="S188" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T188" s="74">
+        <v>1</v>
+      </c>
+      <c r="U188" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>41807</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="74"/>
+      <c r="D189" s="74"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="74"/>
+      <c r="G189" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H189" s="74">
+        <v>1</v>
+      </c>
+      <c r="I189" s="74">
+        <v>0</v>
+      </c>
+      <c r="J189" s="74"/>
+      <c r="K189" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L189" s="74">
+        <v>1</v>
+      </c>
+      <c r="M189" s="74">
+        <v>1</v>
+      </c>
+      <c r="N189" s="74"/>
+      <c r="O189" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P189" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="74">
+        <v>1</v>
+      </c>
+      <c r="R189" s="74"/>
+      <c r="S189" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T189" s="74">
+        <v>1</v>
+      </c>
+      <c r="U189" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>41808</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="74"/>
+      <c r="D190" s="74"/>
+      <c r="E190" s="74"/>
+      <c r="F190" s="74"/>
+      <c r="G190" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H190" s="74">
+        <v>1</v>
+      </c>
+      <c r="I190" s="74">
+        <v>0</v>
+      </c>
+      <c r="J190" s="74"/>
+      <c r="K190" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L190" s="74">
+        <v>1</v>
+      </c>
+      <c r="M190" s="74">
+        <v>1</v>
+      </c>
+      <c r="N190" s="74"/>
+      <c r="O190" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P190" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="74">
+        <v>1</v>
+      </c>
+      <c r="R190" s="74"/>
+      <c r="S190" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T190" s="74">
+        <v>1</v>
+      </c>
+      <c r="U190" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>41809</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="74"/>
+      <c r="D191" s="74"/>
+      <c r="E191" s="74"/>
+      <c r="F191" s="74"/>
+      <c r="G191" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H191" s="74">
+        <v>1</v>
+      </c>
+      <c r="I191" s="74">
+        <v>0</v>
+      </c>
+      <c r="J191" s="74"/>
+      <c r="K191" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L191" s="74">
+        <v>1</v>
+      </c>
+      <c r="M191" s="74">
+        <v>1</v>
+      </c>
+      <c r="N191" s="74"/>
+      <c r="O191" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P191" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="74">
+        <v>1</v>
+      </c>
+      <c r="R191" s="74"/>
+      <c r="S191" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T191" s="74">
+        <v>1</v>
+      </c>
+      <c r="U191" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>41810</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="C192" s="74"/>
+      <c r="D192" s="74"/>
+      <c r="E192" s="74"/>
+      <c r="F192" s="74"/>
+      <c r="G192" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="H192" s="53">
+        <v>0</v>
+      </c>
+      <c r="I192" s="53">
+        <v>0</v>
+      </c>
+      <c r="J192" s="74"/>
+      <c r="K192" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L192" s="74">
+        <v>1</v>
+      </c>
+      <c r="M192" s="74">
+        <v>1</v>
+      </c>
+      <c r="N192" s="74"/>
+      <c r="O192" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P192" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="74">
+        <v>1</v>
+      </c>
+      <c r="R192" s="74"/>
+      <c r="S192" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T192" s="74">
+        <v>1</v>
+      </c>
+      <c r="U192" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="58">
         <v>41811</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="B193" s="59"/>
+      <c r="C193" s="59"/>
+      <c r="D193" s="59"/>
+      <c r="E193" s="59"/>
+      <c r="F193" s="59"/>
+      <c r="G193" s="59"/>
+      <c r="H193" s="59"/>
+      <c r="I193" s="59"/>
+      <c r="J193" s="59"/>
+      <c r="K193" s="59"/>
+      <c r="L193" s="59"/>
+      <c r="M193" s="59"/>
+      <c r="N193" s="59"/>
+      <c r="O193" s="59"/>
+      <c r="P193" s="59"/>
+      <c r="Q193" s="59"/>
+      <c r="R193" s="59"/>
+      <c r="S193" s="59"/>
+      <c r="T193" s="59"/>
+      <c r="U193" s="59"/>
+      <c r="V193" s="59"/>
+      <c r="W193" s="59"/>
+      <c r="X193" s="59"/>
+      <c r="Y193" s="59"/>
+      <c r="Z193" s="59"/>
+      <c r="AA193" s="59"/>
+      <c r="AB193" s="59"/>
+    </row>
+    <row r="194" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="56">
         <v>41812</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="57"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="57"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
+      <c r="K194" s="57"/>
+      <c r="L194" s="57"/>
+      <c r="M194" s="57"/>
+      <c r="N194" s="57"/>
+      <c r="O194" s="57"/>
+      <c r="P194" s="57"/>
+      <c r="Q194" s="57"/>
+      <c r="R194" s="57"/>
+      <c r="S194" s="57"/>
+      <c r="T194" s="57"/>
+      <c r="U194" s="57"/>
+      <c r="V194" s="57"/>
+      <c r="W194" s="57"/>
+      <c r="X194" s="57"/>
+      <c r="Y194" s="57"/>
+      <c r="Z194" s="57"/>
+      <c r="AA194" s="57"/>
+      <c r="AB194" s="57"/>
+    </row>
+    <row r="195" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>41813</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="74"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="74"/>
+      <c r="G195" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H195" s="74">
+        <v>1</v>
+      </c>
+      <c r="I195" s="74">
+        <v>0</v>
+      </c>
+      <c r="J195" s="74"/>
+      <c r="K195" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L195" s="74">
+        <v>1</v>
+      </c>
+      <c r="M195" s="74">
+        <v>1</v>
+      </c>
+      <c r="N195" s="74"/>
+      <c r="O195" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P195" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="74">
+        <v>1</v>
+      </c>
+      <c r="R195" s="74"/>
+      <c r="S195" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T195" s="74">
+        <v>1</v>
+      </c>
+      <c r="U195" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>41814</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="74"/>
+      <c r="D196" s="74"/>
+      <c r="E196" s="74"/>
+      <c r="F196" s="74"/>
+      <c r="G196" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H196" s="74">
+        <v>1</v>
+      </c>
+      <c r="I196" s="74">
+        <v>0</v>
+      </c>
+      <c r="J196" s="74"/>
+      <c r="K196" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L196" s="74">
+        <v>1</v>
+      </c>
+      <c r="M196" s="74">
+        <v>1</v>
+      </c>
+      <c r="N196" s="74"/>
+      <c r="O196" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P196" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="74">
+        <v>1</v>
+      </c>
+      <c r="R196" s="74"/>
+      <c r="S196" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T196" s="74">
+        <v>1</v>
+      </c>
+      <c r="U196" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>41815</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C197" s="74"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="74"/>
+      <c r="F197" s="74"/>
+      <c r="G197" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H197" s="74">
+        <v>1</v>
+      </c>
+      <c r="I197" s="74">
+        <v>0</v>
+      </c>
+      <c r="J197" s="74"/>
+      <c r="K197" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L197" s="74">
+        <v>1</v>
+      </c>
+      <c r="M197" s="74">
+        <v>1</v>
+      </c>
+      <c r="N197" s="74"/>
+      <c r="O197" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P197" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="74">
+        <v>1</v>
+      </c>
+      <c r="R197" s="74"/>
+      <c r="S197" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T197" s="74">
+        <v>1</v>
+      </c>
+      <c r="U197" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>41816</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C198" s="74"/>
+      <c r="D198" s="74"/>
+      <c r="E198" s="74"/>
+      <c r="F198" s="74"/>
+      <c r="G198" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="H198" s="74">
+        <v>1</v>
+      </c>
+      <c r="I198" s="74">
+        <v>0</v>
+      </c>
+      <c r="J198" s="74"/>
+      <c r="K198" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L198" s="74">
+        <v>1</v>
+      </c>
+      <c r="M198" s="74">
+        <v>1</v>
+      </c>
+      <c r="N198" s="74"/>
+      <c r="O198" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P198" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="Q198" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="R198" s="74"/>
+      <c r="S198" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T198" s="74">
+        <v>1</v>
+      </c>
+      <c r="U198" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>41817</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="C199" s="74"/>
+      <c r="D199" s="74"/>
+      <c r="E199" s="74"/>
+      <c r="F199" s="74"/>
+      <c r="G199" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H199" s="74">
+        <v>1</v>
+      </c>
+      <c r="I199" s="74">
+        <v>0</v>
+      </c>
+      <c r="J199" s="74"/>
+      <c r="K199" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L199" s="74">
+        <v>1</v>
+      </c>
+      <c r="M199" s="74">
+        <v>1</v>
+      </c>
+      <c r="N199" s="74"/>
+      <c r="O199" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="P199" s="53"/>
+      <c r="Q199" s="53"/>
+      <c r="R199" s="74"/>
+      <c r="S199" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T199" s="74">
+        <v>1</v>
+      </c>
+      <c r="U199" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="58">
         <v>41818</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="B200" s="59"/>
+      <c r="C200" s="59"/>
+      <c r="D200" s="59"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="59"/>
+      <c r="G200" s="59"/>
+      <c r="H200" s="59"/>
+      <c r="I200" s="59"/>
+      <c r="J200" s="59"/>
+      <c r="K200" s="59"/>
+      <c r="L200" s="59"/>
+      <c r="M200" s="59"/>
+      <c r="N200" s="59"/>
+      <c r="O200" s="59"/>
+      <c r="P200" s="59"/>
+      <c r="Q200" s="59"/>
+      <c r="R200" s="59"/>
+      <c r="S200" s="59"/>
+      <c r="T200" s="59"/>
+      <c r="U200" s="59"/>
+      <c r="V200" s="59"/>
+      <c r="W200" s="59"/>
+      <c r="X200" s="59"/>
+      <c r="Y200" s="59"/>
+      <c r="Z200" s="59"/>
+      <c r="AA200" s="59"/>
+      <c r="AB200" s="59"/>
+    </row>
+    <row r="201" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="56">
         <v>41819</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="57"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="57"/>
+      <c r="J201" s="57"/>
+      <c r="K201" s="57"/>
+      <c r="L201" s="57"/>
+      <c r="M201" s="57"/>
+      <c r="N201" s="57"/>
+      <c r="O201" s="57"/>
+      <c r="P201" s="57"/>
+      <c r="Q201" s="57"/>
+      <c r="R201" s="57"/>
+      <c r="S201" s="57"/>
+      <c r="T201" s="57"/>
+      <c r="U201" s="57"/>
+      <c r="V201" s="57"/>
+      <c r="W201" s="57"/>
+      <c r="X201" s="57"/>
+      <c r="Y201" s="57"/>
+      <c r="Z201" s="57"/>
+      <c r="AA201" s="57"/>
+      <c r="AB201" s="57"/>
+    </row>
+    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>41820</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="74"/>
+      <c r="D202" s="74"/>
+      <c r="E202" s="74"/>
+      <c r="F202" s="74"/>
+      <c r="G202" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H202" s="74">
+        <v>1</v>
+      </c>
+      <c r="I202" s="74">
+        <v>0</v>
+      </c>
+      <c r="J202" s="74"/>
+      <c r="K202" s="74"/>
+      <c r="L202" s="74"/>
+      <c r="M202" s="74"/>
+      <c r="N202" s="74"/>
+      <c r="O202" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="P202" s="53"/>
+      <c r="Q202" s="53"/>
+      <c r="R202" s="74"/>
+      <c r="S202" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T202" s="74">
+        <v>1</v>
+      </c>
+      <c r="U202" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C203" s="74"/>
+      <c r="D203" s="74"/>
+      <c r="E203" s="74"/>
+      <c r="F203" s="74"/>
+      <c r="G203" s="74"/>
+      <c r="H203" s="74"/>
+      <c r="I203" s="74"/>
+      <c r="J203" s="74"/>
+      <c r="K203" s="74"/>
+      <c r="L203" s="74"/>
+      <c r="M203" s="74"/>
+      <c r="N203" s="74"/>
+      <c r="O203" s="74"/>
+      <c r="P203" s="74"/>
+      <c r="Q203" s="74"/>
+      <c r="R203" s="74"/>
+      <c r="S203" s="74"/>
+      <c r="T203" s="74"/>
+      <c r="U203" s="74"/>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="C204" s="74"/>
+      <c r="D204" s="74"/>
+      <c r="E204" s="74"/>
+      <c r="F204" s="74"/>
+      <c r="G204" s="74"/>
+      <c r="H204" s="74"/>
+      <c r="I204" s="74"/>
+      <c r="J204" s="74"/>
+      <c r="K204" s="74"/>
+      <c r="L204" s="74"/>
+      <c r="M204" s="74"/>
+      <c r="N204" s="74"/>
+      <c r="O204" s="74"/>
+      <c r="P204" s="74"/>
+      <c r="Q204" s="74"/>
+      <c r="R204" s="74"/>
+      <c r="S204" s="74"/>
+      <c r="T204" s="74"/>
+      <c r="U204" s="74"/>
+    </row>
+    <row r="205" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="20">
         <v>41821</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H205" s="74">
+        <v>1</v>
+      </c>
+      <c r="I205" s="74">
+        <v>0</v>
+      </c>
+      <c r="J205" s="21"/>
+      <c r="K205" s="21"/>
+      <c r="L205" s="21"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="21"/>
+      <c r="O205" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="P205" s="53"/>
+      <c r="Q205" s="53"/>
+      <c r="R205" s="21"/>
+      <c r="S205" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T205" s="21">
+        <v>1</v>
+      </c>
+      <c r="U205" s="21">
+        <v>1</v>
+      </c>
+      <c r="V205" s="21"/>
+      <c r="W205" s="21"/>
+      <c r="X205" s="21"/>
+      <c r="Y205" s="21"/>
+      <c r="Z205" s="21"/>
+      <c r="AA205" s="21"/>
+      <c r="AB205" s="21"/>
+    </row>
+    <row r="206" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="20">
         <v>41822</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H206" s="74">
+        <v>1</v>
+      </c>
+      <c r="I206" s="74">
+        <v>0</v>
+      </c>
+      <c r="J206" s="21"/>
+      <c r="K206" s="21"/>
+      <c r="L206" s="21"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="21"/>
+      <c r="O206" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="P206" s="53"/>
+      <c r="Q206" s="53"/>
+      <c r="R206" s="21"/>
+      <c r="S206" t="s">
+        <v>47</v>
+      </c>
+      <c r="T206" s="21">
+        <v>1</v>
+      </c>
+      <c r="U206" s="21">
+        <v>1</v>
+      </c>
+      <c r="V206" s="21"/>
+      <c r="W206" s="21"/>
+      <c r="X206" s="21"/>
+      <c r="Y206" s="21"/>
+      <c r="Z206" s="21"/>
+      <c r="AA206" s="21"/>
+      <c r="AB206" s="21"/>
+    </row>
+    <row r="207" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="20">
         <v>41823</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H207" s="74">
+        <v>1</v>
+      </c>
+      <c r="I207" s="74">
+        <v>0</v>
+      </c>
+      <c r="J207" s="21"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="21"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="21"/>
+      <c r="O207" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="P207" s="53"/>
+      <c r="Q207" s="53"/>
+      <c r="R207" s="21"/>
+      <c r="S207" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T207" s="74">
+        <v>1</v>
+      </c>
+      <c r="U207" s="74">
+        <v>1</v>
+      </c>
+      <c r="V207" s="21"/>
+      <c r="W207" s="21"/>
+      <c r="X207" s="21"/>
+      <c r="Y207" s="21"/>
+      <c r="Z207" s="21"/>
+      <c r="AA207" s="21"/>
+      <c r="AB207" s="21"/>
+    </row>
+    <row r="208" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="20">
         <v>41824</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H208" s="53"/>
+      <c r="I208" s="53"/>
+      <c r="J208" s="21"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="21"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="21"/>
+      <c r="O208" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="P208" s="53"/>
+      <c r="Q208" s="53"/>
+      <c r="R208" s="21"/>
+      <c r="S208" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T208" s="53"/>
+      <c r="U208" s="53"/>
+      <c r="V208" s="21"/>
+      <c r="W208" s="21"/>
+      <c r="X208" s="21"/>
+      <c r="Y208" s="21"/>
+      <c r="Z208" s="21"/>
+      <c r="AA208" s="21"/>
+      <c r="AB208" s="21"/>
+    </row>
+    <row r="209" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="58">
         <v>41825</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="B209" s="59"/>
+      <c r="C209" s="59"/>
+      <c r="D209" s="59"/>
+      <c r="E209" s="59"/>
+      <c r="F209" s="59"/>
+      <c r="G209" s="59"/>
+      <c r="H209" s="59"/>
+      <c r="I209" s="59"/>
+      <c r="J209" s="59"/>
+      <c r="K209" s="59"/>
+      <c r="L209" s="59"/>
+      <c r="M209" s="59"/>
+      <c r="N209" s="59"/>
+      <c r="O209" s="59"/>
+      <c r="P209" s="59"/>
+      <c r="Q209" s="59"/>
+      <c r="R209" s="59"/>
+      <c r="S209" s="59"/>
+      <c r="T209" s="59"/>
+      <c r="U209" s="59"/>
+      <c r="V209" s="59"/>
+      <c r="W209" s="59"/>
+      <c r="X209" s="59"/>
+      <c r="Y209" s="59"/>
+      <c r="Z209" s="59"/>
+      <c r="AA209" s="59"/>
+      <c r="AB209" s="59"/>
+    </row>
+    <row r="210" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="56">
         <v>41826</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="B210" s="57"/>
+      <c r="C210" s="57"/>
+      <c r="D210" s="57"/>
+      <c r="E210" s="57"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="57"/>
+      <c r="J210" s="57"/>
+      <c r="K210" s="57"/>
+      <c r="L210" s="57"/>
+      <c r="M210" s="57"/>
+      <c r="N210" s="57"/>
+      <c r="O210" s="57"/>
+      <c r="P210" s="57"/>
+      <c r="Q210" s="57"/>
+      <c r="R210" s="57"/>
+      <c r="S210" s="57"/>
+      <c r="T210" s="57"/>
+      <c r="U210" s="57"/>
+      <c r="V210" s="57"/>
+      <c r="W210" s="57"/>
+      <c r="X210" s="57"/>
+      <c r="Y210" s="57"/>
+      <c r="Z210" s="57"/>
+      <c r="AA210" s="57"/>
+      <c r="AB210" s="57"/>
+    </row>
+    <row r="211" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="20">
         <v>41827</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
+      <c r="J211" s="21"/>
+      <c r="K211" s="21"/>
+      <c r="L211" s="21"/>
+      <c r="M211" s="21"/>
+      <c r="N211" s="21"/>
+      <c r="O211" s="21"/>
+      <c r="P211" s="21"/>
+      <c r="Q211" s="21"/>
+      <c r="R211" s="21"/>
+      <c r="S211" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T211" s="21">
+        <v>1</v>
+      </c>
+      <c r="U211" s="21">
+        <v>1</v>
+      </c>
+      <c r="V211" s="21"/>
+      <c r="W211" s="21"/>
+      <c r="X211" s="21"/>
+      <c r="Y211" s="21"/>
+      <c r="Z211" s="21"/>
+      <c r="AA211" s="21"/>
+      <c r="AB211" s="21"/>
+    </row>
+    <row r="212" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="20">
         <v>41828</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
+      <c r="J212" s="21"/>
+      <c r="K212" s="21"/>
+      <c r="L212" s="21"/>
+      <c r="M212" s="21"/>
+      <c r="N212" s="21"/>
+      <c r="O212" s="21"/>
+      <c r="P212" s="21"/>
+      <c r="Q212" s="21"/>
+      <c r="R212" s="21"/>
+      <c r="S212" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T212" s="21">
+        <v>1</v>
+      </c>
+      <c r="U212" s="21">
+        <v>1</v>
+      </c>
+      <c r="V212" s="21"/>
+      <c r="W212" s="21"/>
+      <c r="X212" s="21"/>
+      <c r="Y212" s="21"/>
+      <c r="Z212" s="21"/>
+      <c r="AA212" s="21"/>
+      <c r="AB212" s="21"/>
+    </row>
+    <row r="213" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="20">
         <v>41829</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+      <c r="J213" s="21"/>
+      <c r="K213" s="21"/>
+      <c r="L213" s="21"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="21"/>
+      <c r="O213" s="21"/>
+      <c r="P213" s="21"/>
+      <c r="Q213" s="21"/>
+      <c r="R213" s="21"/>
+      <c r="S213" s="21"/>
+      <c r="T213" s="21"/>
+      <c r="U213" s="21"/>
+      <c r="V213" s="21"/>
+      <c r="W213" s="21"/>
+      <c r="X213" s="21"/>
+      <c r="Y213" s="21"/>
+      <c r="Z213" s="21"/>
+      <c r="AA213" s="21"/>
+      <c r="AB213" s="21"/>
+    </row>
+    <row r="214" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="20">
         <v>41830</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="21"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="21"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="21"/>
+      <c r="O214" s="21"/>
+      <c r="P214" s="21"/>
+      <c r="Q214" s="21"/>
+      <c r="R214" s="21"/>
+      <c r="S214" s="21"/>
+      <c r="T214" s="21"/>
+      <c r="U214" s="21"/>
+      <c r="V214" s="21"/>
+      <c r="W214" s="21"/>
+      <c r="X214" s="21"/>
+      <c r="Y214" s="21"/>
+      <c r="Z214" s="21"/>
+      <c r="AA214" s="21"/>
+      <c r="AB214" s="21"/>
+    </row>
+    <row r="215" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="20">
         <v>41831</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="B215" s="21"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H215" s="53"/>
+      <c r="I215" s="53"/>
+      <c r="J215" s="21"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="21"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="21"/>
+      <c r="O215" s="21"/>
+      <c r="P215" s="21"/>
+      <c r="Q215" s="21"/>
+      <c r="R215" s="21"/>
+      <c r="S215" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T215" s="53"/>
+      <c r="U215" s="53"/>
+      <c r="V215" s="21"/>
+      <c r="W215" s="21"/>
+      <c r="X215" s="21"/>
+      <c r="Y215" s="21"/>
+      <c r="Z215" s="21"/>
+      <c r="AA215" s="21"/>
+      <c r="AB215" s="21"/>
+    </row>
+    <row r="216" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="58">
         <v>41832</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="B216" s="59"/>
+      <c r="C216" s="59"/>
+      <c r="D216" s="59"/>
+      <c r="E216" s="59"/>
+      <c r="F216" s="59"/>
+      <c r="G216" s="59"/>
+      <c r="H216" s="59"/>
+      <c r="I216" s="59"/>
+      <c r="J216" s="59"/>
+      <c r="K216" s="59"/>
+      <c r="L216" s="59"/>
+      <c r="M216" s="59"/>
+      <c r="N216" s="59"/>
+      <c r="O216" s="59"/>
+      <c r="P216" s="59"/>
+      <c r="Q216" s="59"/>
+      <c r="R216" s="59"/>
+      <c r="S216" s="59"/>
+      <c r="T216" s="59"/>
+      <c r="U216" s="59"/>
+      <c r="V216" s="59"/>
+      <c r="W216" s="59"/>
+      <c r="X216" s="59"/>
+      <c r="Y216" s="59"/>
+      <c r="Z216" s="59"/>
+      <c r="AA216" s="59"/>
+      <c r="AB216" s="59"/>
+    </row>
+    <row r="217" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="56">
         <v>41833</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="B217" s="57"/>
+      <c r="C217" s="57"/>
+      <c r="D217" s="57"/>
+      <c r="E217" s="57"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="57"/>
+      <c r="H217" s="57"/>
+      <c r="I217" s="57"/>
+      <c r="J217" s="57"/>
+      <c r="K217" s="57"/>
+      <c r="L217" s="57"/>
+      <c r="M217" s="57"/>
+      <c r="N217" s="57"/>
+      <c r="O217" s="57"/>
+      <c r="P217" s="57"/>
+      <c r="Q217" s="57"/>
+      <c r="R217" s="57"/>
+      <c r="S217" s="57"/>
+      <c r="T217" s="57"/>
+      <c r="U217" s="57"/>
+      <c r="V217" s="57"/>
+      <c r="W217" s="57"/>
+      <c r="X217" s="57"/>
+      <c r="Y217" s="57"/>
+      <c r="Z217" s="57"/>
+      <c r="AA217" s="57"/>
+      <c r="AB217" s="57"/>
+    </row>
+    <row r="218" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="20">
         <v>41834</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="B218" s="21"/>
+      <c r="C218" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D218" s="53"/>
+      <c r="E218" s="53"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+      <c r="J218" s="21"/>
+      <c r="K218" s="21"/>
+      <c r="L218" s="21"/>
+      <c r="M218" s="21"/>
+      <c r="N218" s="21"/>
+      <c r="O218" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="P218" s="53"/>
+      <c r="Q218" s="53"/>
+      <c r="R218" s="21"/>
+      <c r="S218" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T218" s="53"/>
+      <c r="U218" s="53"/>
+      <c r="V218" s="21"/>
+      <c r="W218" s="21"/>
+      <c r="X218" s="21"/>
+      <c r="Y218" s="21"/>
+      <c r="Z218" s="21"/>
+      <c r="AA218" s="21"/>
+      <c r="AB218" s="21"/>
+    </row>
+    <row r="219" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="20">
         <v>41835</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
+      <c r="I219" s="21"/>
+      <c r="J219" s="21"/>
+      <c r="K219" s="21"/>
+      <c r="L219" s="21"/>
+      <c r="M219" s="21"/>
+      <c r="N219" s="21"/>
+      <c r="O219" s="21"/>
+      <c r="P219" s="21"/>
+      <c r="Q219" s="21"/>
+      <c r="R219" s="21"/>
+      <c r="S219" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T219" s="21">
+        <v>1</v>
+      </c>
+      <c r="U219" s="21">
+        <v>1</v>
+      </c>
+      <c r="V219" s="21"/>
+      <c r="W219" s="21"/>
+      <c r="X219" s="21"/>
+      <c r="Y219" s="21"/>
+      <c r="Z219" s="21"/>
+      <c r="AA219" s="21"/>
+      <c r="AB219" s="21"/>
+    </row>
+    <row r="220" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="20">
         <v>41836</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21"/>
+      <c r="I220" s="21"/>
+      <c r="J220" s="21"/>
+      <c r="K220" s="21"/>
+      <c r="L220" s="21"/>
+      <c r="M220" s="21"/>
+      <c r="N220" s="21"/>
+      <c r="O220" s="21"/>
+      <c r="P220" s="21"/>
+      <c r="Q220" s="21"/>
+      <c r="R220" s="21"/>
+      <c r="S220" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T220" s="21">
+        <v>1</v>
+      </c>
+      <c r="U220" s="21">
+        <v>1</v>
+      </c>
+      <c r="V220" s="21"/>
+      <c r="W220" s="21"/>
+      <c r="X220" s="21"/>
+      <c r="Y220" s="21"/>
+      <c r="Z220" s="21"/>
+      <c r="AA220" s="21"/>
+      <c r="AB220" s="21"/>
+    </row>
+    <row r="221" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="20">
         <v>41837</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="B221" s="21"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
+      <c r="J221" s="21"/>
+      <c r="K221" s="21"/>
+      <c r="L221" s="21"/>
+      <c r="M221" s="21"/>
+      <c r="N221" s="21"/>
+      <c r="O221" s="21"/>
+      <c r="P221" s="21"/>
+      <c r="Q221" s="21"/>
+      <c r="R221" s="21"/>
+      <c r="S221" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T221" s="21">
+        <v>1</v>
+      </c>
+      <c r="U221" s="21">
+        <v>1</v>
+      </c>
+      <c r="V221" s="21"/>
+      <c r="W221" s="21"/>
+      <c r="X221" s="21"/>
+      <c r="Y221" s="21"/>
+      <c r="Z221" s="21"/>
+      <c r="AA221" s="21"/>
+      <c r="AB221" s="21"/>
+    </row>
+    <row r="222" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="20">
         <v>41838</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="B222" s="21"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H222" s="53"/>
+      <c r="I222" s="53"/>
+      <c r="J222" s="21"/>
+      <c r="K222" s="21"/>
+      <c r="L222" s="21"/>
+      <c r="M222" s="21"/>
+      <c r="N222" s="21"/>
+      <c r="O222" s="21"/>
+      <c r="P222" s="21"/>
+      <c r="Q222" s="21"/>
+      <c r="R222" s="21"/>
+      <c r="S222" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T222" s="53"/>
+      <c r="U222" s="53"/>
+      <c r="V222" s="21"/>
+      <c r="W222" s="21"/>
+      <c r="X222" s="21"/>
+      <c r="Y222" s="21"/>
+      <c r="Z222" s="21"/>
+      <c r="AA222" s="21"/>
+      <c r="AB222" s="21"/>
+    </row>
+    <row r="223" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="58">
         <v>41839</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="B223" s="59"/>
+      <c r="C223" s="59"/>
+      <c r="D223" s="59"/>
+      <c r="E223" s="59"/>
+      <c r="F223" s="59"/>
+      <c r="G223" s="59"/>
+      <c r="H223" s="59"/>
+      <c r="I223" s="59"/>
+      <c r="J223" s="59"/>
+      <c r="K223" s="59"/>
+      <c r="L223" s="59"/>
+      <c r="M223" s="59"/>
+      <c r="N223" s="59"/>
+      <c r="O223" s="59"/>
+      <c r="P223" s="59"/>
+      <c r="Q223" s="59"/>
+      <c r="R223" s="59"/>
+      <c r="S223" s="59"/>
+      <c r="T223" s="59"/>
+      <c r="U223" s="59"/>
+      <c r="V223" s="59"/>
+      <c r="W223" s="59"/>
+      <c r="X223" s="59"/>
+      <c r="Y223" s="59"/>
+      <c r="Z223" s="59"/>
+      <c r="AA223" s="59"/>
+      <c r="AB223" s="59"/>
+    </row>
+    <row r="224" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="56">
         <v>41840</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="B224" s="57"/>
+      <c r="C224" s="57"/>
+      <c r="D224" s="57"/>
+      <c r="E224" s="57"/>
+      <c r="F224" s="57"/>
+      <c r="G224" s="57"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="57"/>
+      <c r="J224" s="57"/>
+      <c r="K224" s="57"/>
+      <c r="L224" s="57"/>
+      <c r="M224" s="57"/>
+      <c r="N224" s="57"/>
+      <c r="O224" s="57"/>
+      <c r="P224" s="57"/>
+      <c r="Q224" s="57"/>
+      <c r="R224" s="57"/>
+      <c r="S224" s="57"/>
+      <c r="T224" s="57"/>
+      <c r="U224" s="57"/>
+      <c r="V224" s="57"/>
+      <c r="W224" s="57"/>
+      <c r="X224" s="57"/>
+      <c r="Y224" s="57"/>
+      <c r="Z224" s="57"/>
+      <c r="AA224" s="57"/>
+      <c r="AB224" s="57"/>
+    </row>
+    <row r="225" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="20">
         <v>41841</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="B225" s="21"/>
+      <c r="C225" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D225" s="53"/>
+      <c r="E225" s="53"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
+      <c r="I225" s="21"/>
+      <c r="J225" s="21"/>
+      <c r="K225" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L225" s="53"/>
+      <c r="M225" s="53"/>
+      <c r="N225" s="21"/>
+      <c r="O225" s="21"/>
+      <c r="P225" s="21"/>
+      <c r="Q225" s="21"/>
+      <c r="R225" s="21"/>
+      <c r="S225" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T225" s="53"/>
+      <c r="U225" s="53"/>
+      <c r="V225" s="21"/>
+      <c r="W225" s="21"/>
+      <c r="X225" s="21"/>
+      <c r="Y225" s="21"/>
+      <c r="Z225" s="21"/>
+      <c r="AA225" s="21"/>
+      <c r="AB225" s="21"/>
+    </row>
+    <row r="226" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="20">
         <v>41842</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="B226" s="21"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
+      <c r="I226" s="21"/>
+      <c r="J226" s="21"/>
+      <c r="K226" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L226" s="53"/>
+      <c r="M226" s="53"/>
+      <c r="N226" s="21"/>
+      <c r="O226" s="21"/>
+      <c r="P226" s="21"/>
+      <c r="Q226" s="21"/>
+      <c r="R226" s="21"/>
+      <c r="S226" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T226" s="53"/>
+      <c r="U226" s="53"/>
+      <c r="V226" s="21"/>
+      <c r="W226" s="21"/>
+      <c r="X226" s="21"/>
+      <c r="Y226" s="21"/>
+      <c r="Z226" s="21"/>
+      <c r="AA226" s="21"/>
+      <c r="AB226" s="21"/>
+    </row>
+    <row r="227" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="20">
         <v>41843</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="B227" s="21"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H227" s="53"/>
+      <c r="I227" s="53"/>
+      <c r="J227" s="21"/>
+      <c r="K227" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L227" s="53"/>
+      <c r="M227" s="53"/>
+      <c r="N227" s="21"/>
+      <c r="O227" s="21"/>
+      <c r="P227" s="21"/>
+      <c r="Q227" s="21"/>
+      <c r="R227" s="21"/>
+      <c r="S227" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T227" s="21">
+        <v>1</v>
+      </c>
+      <c r="U227" s="21">
+        <v>1</v>
+      </c>
+      <c r="V227" s="21"/>
+      <c r="W227" s="21"/>
+      <c r="X227" s="21"/>
+      <c r="Y227" s="21"/>
+      <c r="Z227" s="21"/>
+      <c r="AA227" s="21"/>
+      <c r="AB227" s="21"/>
+    </row>
+    <row r="228" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="20">
         <v>41844</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="B228" s="21"/>
+      <c r="C228" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D228" s="53"/>
+      <c r="E228" s="53"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H228" s="53"/>
+      <c r="I228" s="53"/>
+      <c r="J228" s="21"/>
+      <c r="K228" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L228" s="53"/>
+      <c r="M228" s="53"/>
+      <c r="N228" s="21"/>
+      <c r="O228" s="21"/>
+      <c r="P228" s="21"/>
+      <c r="Q228" s="21"/>
+      <c r="R228" s="21"/>
+      <c r="S228" s="21"/>
+      <c r="T228" s="21"/>
+      <c r="U228" s="21"/>
+      <c r="V228" s="21"/>
+      <c r="W228" s="21"/>
+      <c r="X228" s="21"/>
+      <c r="Y228" s="21"/>
+      <c r="Z228" s="21"/>
+      <c r="AA228" s="21"/>
+      <c r="AB228" s="21"/>
+    </row>
+    <row r="229" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="20">
         <v>41845</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="B229" s="21"/>
+      <c r="C229" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D229" s="53"/>
+      <c r="E229" s="53"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="H229" s="53"/>
+      <c r="I229" s="53"/>
+      <c r="J229" s="21"/>
+      <c r="K229" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="L229" s="53"/>
+      <c r="M229" s="53"/>
+      <c r="N229" s="21"/>
+      <c r="O229" s="21"/>
+      <c r="P229" s="21"/>
+      <c r="Q229" s="21"/>
+      <c r="R229" s="21"/>
+      <c r="S229" s="21"/>
+      <c r="T229" s="21"/>
+      <c r="U229" s="21"/>
+      <c r="V229" s="21"/>
+      <c r="W229" s="21"/>
+      <c r="X229" s="21"/>
+      <c r="Y229" s="21"/>
+      <c r="Z229" s="21"/>
+      <c r="AA229" s="21"/>
+      <c r="AB229" s="21"/>
+    </row>
+    <row r="230" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="58">
         <v>41846</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="B230" s="59"/>
+      <c r="C230" s="59"/>
+      <c r="D230" s="59"/>
+      <c r="E230" s="59"/>
+      <c r="F230" s="59"/>
+      <c r="G230" s="59"/>
+      <c r="H230" s="59"/>
+      <c r="I230" s="59"/>
+      <c r="J230" s="59"/>
+      <c r="K230" s="59"/>
+      <c r="L230" s="59"/>
+      <c r="M230" s="59"/>
+      <c r="N230" s="59"/>
+      <c r="O230" s="59"/>
+      <c r="P230" s="59"/>
+      <c r="Q230" s="59"/>
+      <c r="R230" s="59"/>
+      <c r="S230" s="59"/>
+      <c r="T230" s="59"/>
+      <c r="U230" s="59"/>
+      <c r="V230" s="59"/>
+      <c r="W230" s="59"/>
+      <c r="X230" s="59"/>
+      <c r="Y230" s="59"/>
+      <c r="Z230" s="59"/>
+      <c r="AA230" s="59"/>
+      <c r="AB230" s="59"/>
+    </row>
+    <row r="231" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="56">
         <v>41847</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="B231" s="57"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="57"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="57"/>
+      <c r="K231" s="57"/>
+      <c r="L231" s="57"/>
+      <c r="M231" s="57"/>
+      <c r="N231" s="57"/>
+      <c r="O231" s="57"/>
+      <c r="P231" s="57"/>
+      <c r="Q231" s="57"/>
+      <c r="R231" s="57"/>
+      <c r="S231" s="57"/>
+      <c r="T231" s="57"/>
+      <c r="U231" s="57"/>
+      <c r="V231" s="57"/>
+      <c r="W231" s="57"/>
+      <c r="X231" s="57"/>
+      <c r="Y231" s="57"/>
+      <c r="Z231" s="57"/>
+      <c r="AA231" s="57"/>
+      <c r="AB231" s="57"/>
+    </row>
+    <row r="232" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="20">
         <v>41848</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="B232" s="21"/>
+      <c r="C232" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D232" s="53"/>
+      <c r="E232" s="53"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="H232" s="53"/>
+      <c r="I232" s="53"/>
+      <c r="J232" s="21"/>
+      <c r="K232" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="L232" s="53"/>
+      <c r="M232" s="53"/>
+      <c r="N232" s="21"/>
+      <c r="O232" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="P232" s="53"/>
+      <c r="Q232" s="53"/>
+      <c r="R232" s="21"/>
+      <c r="S232" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="T232" s="53"/>
+      <c r="U232" s="53"/>
+      <c r="V232" s="21"/>
+      <c r="W232" s="21"/>
+      <c r="X232" s="21"/>
+      <c r="Y232" s="21"/>
+      <c r="Z232" s="21"/>
+      <c r="AA232" s="21"/>
+      <c r="AB232" s="21"/>
+    </row>
+    <row r="233" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="20">
         <v>41849</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="B233" s="21"/>
+      <c r="C233" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D233" s="53"/>
+      <c r="E233" s="53"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="H233" s="53"/>
+      <c r="I233" s="53"/>
+      <c r="J233" s="21"/>
+      <c r="K233" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="L233" s="53"/>
+      <c r="M233" s="53"/>
+      <c r="N233" s="21"/>
+      <c r="O233" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="P233" s="53"/>
+      <c r="Q233" s="53"/>
+      <c r="R233" s="21"/>
+      <c r="S233" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="T233" s="53"/>
+      <c r="U233" s="53"/>
+      <c r="V233" s="21"/>
+      <c r="W233" s="21"/>
+      <c r="X233" s="21"/>
+      <c r="Y233" s="21"/>
+      <c r="Z233" s="21"/>
+      <c r="AA233" s="21"/>
+      <c r="AB233" s="21"/>
+    </row>
+    <row r="234" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="20">
         <v>41850</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="B234" s="21"/>
+      <c r="C234" s="21"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
+      <c r="J234" s="21"/>
+      <c r="K234" s="21"/>
+      <c r="L234" s="21"/>
+      <c r="M234" s="21"/>
+      <c r="N234" s="21"/>
+      <c r="O234" s="21"/>
+      <c r="P234" s="21"/>
+      <c r="Q234" s="21"/>
+      <c r="R234" s="21"/>
+      <c r="S234" s="21"/>
+      <c r="T234" s="21"/>
+      <c r="U234" s="21"/>
+      <c r="V234" s="21"/>
+      <c r="W234" s="21"/>
+      <c r="X234" s="21"/>
+      <c r="Y234" s="21"/>
+      <c r="Z234" s="21"/>
+      <c r="AA234" s="21"/>
+      <c r="AB234" s="21"/>
+    </row>
+    <row r="235" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="20">
         <v>41851</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="21"/>
+      <c r="K235" s="21"/>
+      <c r="L235" s="21"/>
+      <c r="M235" s="21"/>
+      <c r="N235" s="21"/>
+      <c r="O235" s="21"/>
+      <c r="P235" s="21"/>
+      <c r="Q235" s="21"/>
+      <c r="R235" s="21"/>
+      <c r="S235" s="21"/>
+      <c r="T235" s="21"/>
+      <c r="U235" s="21"/>
+      <c r="V235" s="21"/>
+      <c r="W235" s="21"/>
+      <c r="X235" s="21"/>
+      <c r="Y235" s="21"/>
+      <c r="Z235" s="21"/>
+      <c r="AA235" s="21"/>
+      <c r="AB235" s="21"/>
+    </row>
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>41852</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A239" s="58">
         <v>41853</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+      <c r="B239" s="59"/>
+      <c r="C239" s="59"/>
+      <c r="D239" s="59"/>
+      <c r="E239" s="59"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="59"/>
+      <c r="H239" s="59"/>
+      <c r="I239" s="59"/>
+      <c r="J239" s="59"/>
+      <c r="K239" s="59"/>
+      <c r="L239" s="59"/>
+      <c r="M239" s="59"/>
+      <c r="N239" s="59"/>
+      <c r="O239" s="59"/>
+      <c r="P239" s="59"/>
+      <c r="Q239" s="59"/>
+      <c r="R239" s="59"/>
+      <c r="S239" s="59"/>
+      <c r="T239" s="59"/>
+      <c r="U239" s="59"/>
+      <c r="V239" s="59"/>
+      <c r="W239" s="59"/>
+      <c r="X239" s="59"/>
+      <c r="Y239" s="59"/>
+      <c r="Z239" s="59"/>
+      <c r="AA239" s="59"/>
+      <c r="AB239" s="59"/>
+    </row>
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A240" s="56">
         <v>41854</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="57"/>
+      <c r="C240" s="57"/>
+      <c r="D240" s="57"/>
+      <c r="E240" s="57"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="57"/>
+      <c r="H240" s="57"/>
+      <c r="I240" s="57"/>
+      <c r="J240" s="57"/>
+      <c r="K240" s="57"/>
+      <c r="L240" s="57"/>
+      <c r="M240" s="57"/>
+      <c r="N240" s="57"/>
+      <c r="O240" s="57"/>
+      <c r="P240" s="57"/>
+      <c r="Q240" s="57"/>
+      <c r="R240" s="57"/>
+      <c r="S240" s="57"/>
+      <c r="T240" s="57"/>
+      <c r="U240" s="57"/>
+      <c r="V240" s="57"/>
+      <c r="W240" s="57"/>
+      <c r="X240" s="57"/>
+      <c r="Y240" s="57"/>
+      <c r="Z240" s="57"/>
+      <c r="AA240" s="57"/>
+      <c r="AB240" s="57"/>
+    </row>
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>41855</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A242" s="20">
         <v>41856</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+      <c r="B242" s="21"/>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21"/>
+      <c r="G242" s="21"/>
+      <c r="H242" s="21"/>
+      <c r="I242" s="21"/>
+      <c r="J242" s="21"/>
+      <c r="K242" s="21"/>
+      <c r="L242" s="21"/>
+      <c r="M242" s="21"/>
+      <c r="N242" s="21"/>
+      <c r="O242" s="21"/>
+      <c r="P242" s="21"/>
+      <c r="Q242" s="21"/>
+      <c r="R242" s="21"/>
+      <c r="S242" s="21"/>
+      <c r="T242" s="21"/>
+      <c r="U242" s="21"/>
+      <c r="V242" s="21"/>
+      <c r="W242" s="21"/>
+      <c r="X242" s="21"/>
+      <c r="Y242" s="21"/>
+      <c r="Z242" s="21"/>
+      <c r="AA242" s="21"/>
+      <c r="AB242" s="21"/>
+    </row>
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A243" s="20">
         <v>41857</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="B243" s="21"/>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="21"/>
+      <c r="K243" s="21"/>
+      <c r="L243" s="21"/>
+      <c r="M243" s="21"/>
+      <c r="N243" s="21"/>
+      <c r="O243" s="21"/>
+      <c r="P243" s="21"/>
+      <c r="Q243" s="21"/>
+      <c r="R243" s="21"/>
+      <c r="S243" s="21"/>
+      <c r="T243" s="21"/>
+      <c r="U243" s="21"/>
+      <c r="V243" s="21"/>
+      <c r="W243" s="21"/>
+      <c r="X243" s="21"/>
+      <c r="Y243" s="21"/>
+      <c r="Z243" s="21"/>
+      <c r="AA243" s="21"/>
+      <c r="AB243" s="21"/>
+    </row>
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A244" s="20">
         <v>41858</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="B244" s="21"/>
+      <c r="C244" s="21"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21"/>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="21"/>
+      <c r="J244" s="21"/>
+      <c r="K244" s="21"/>
+      <c r="L244" s="21"/>
+      <c r="M244" s="21"/>
+      <c r="N244" s="21"/>
+      <c r="O244" s="21"/>
+      <c r="P244" s="21"/>
+      <c r="Q244" s="21"/>
+      <c r="R244" s="21"/>
+      <c r="S244" s="21"/>
+      <c r="T244" s="21"/>
+      <c r="U244" s="21"/>
+      <c r="V244" s="21"/>
+      <c r="W244" s="21"/>
+      <c r="X244" s="21"/>
+      <c r="Y244" s="21"/>
+      <c r="Z244" s="21"/>
+      <c r="AA244" s="21"/>
+      <c r="AB244" s="21"/>
+    </row>
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A245" s="20">
         <v>41859</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="21"/>
+      <c r="K245" s="21"/>
+      <c r="L245" s="21"/>
+      <c r="M245" s="21"/>
+      <c r="N245" s="21"/>
+      <c r="O245" s="21"/>
+      <c r="P245" s="21"/>
+      <c r="Q245" s="21"/>
+      <c r="R245" s="21"/>
+      <c r="S245" s="21"/>
+      <c r="T245" s="21"/>
+      <c r="U245" s="21"/>
+      <c r="V245" s="21"/>
+      <c r="W245" s="21"/>
+      <c r="X245" s="21"/>
+      <c r="Y245" s="21"/>
+      <c r="Z245" s="21"/>
+      <c r="AA245" s="21"/>
+      <c r="AB245" s="21"/>
+    </row>
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A246" s="58">
         <v>41860</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="B246" s="59"/>
+      <c r="C246" s="59"/>
+      <c r="D246" s="59"/>
+      <c r="E246" s="59"/>
+      <c r="F246" s="59"/>
+      <c r="G246" s="59"/>
+      <c r="H246" s="59"/>
+      <c r="I246" s="59"/>
+      <c r="J246" s="59"/>
+      <c r="K246" s="59"/>
+      <c r="L246" s="59"/>
+      <c r="M246" s="59"/>
+      <c r="N246" s="59"/>
+      <c r="O246" s="59"/>
+      <c r="P246" s="59"/>
+      <c r="Q246" s="59"/>
+      <c r="R246" s="59"/>
+      <c r="S246" s="59"/>
+      <c r="T246" s="59"/>
+      <c r="U246" s="59"/>
+      <c r="V246" s="59"/>
+      <c r="W246" s="59"/>
+      <c r="X246" s="59"/>
+      <c r="Y246" s="59"/>
+      <c r="Z246" s="59"/>
+      <c r="AA246" s="59"/>
+      <c r="AB246" s="59"/>
+    </row>
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A247" s="56">
         <v>41861</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+      <c r="B247" s="57"/>
+      <c r="C247" s="57"/>
+      <c r="D247" s="57"/>
+      <c r="E247" s="57"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="57"/>
+      <c r="H247" s="57"/>
+      <c r="I247" s="57"/>
+      <c r="J247" s="57"/>
+      <c r="K247" s="57"/>
+      <c r="L247" s="57"/>
+      <c r="M247" s="57"/>
+      <c r="N247" s="57"/>
+      <c r="O247" s="57"/>
+      <c r="P247" s="57"/>
+      <c r="Q247" s="57"/>
+      <c r="R247" s="57"/>
+      <c r="S247" s="57"/>
+      <c r="T247" s="57"/>
+      <c r="U247" s="57"/>
+      <c r="V247" s="57"/>
+      <c r="W247" s="57"/>
+      <c r="X247" s="57"/>
+      <c r="Y247" s="57"/>
+      <c r="Z247" s="57"/>
+      <c r="AA247" s="57"/>
+      <c r="AB247" s="57"/>
+    </row>
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A248" s="20">
         <v>41862</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="21"/>
+      <c r="K248" s="21"/>
+      <c r="L248" s="21"/>
+      <c r="M248" s="21"/>
+      <c r="N248" s="21"/>
+      <c r="O248" s="21"/>
+      <c r="P248" s="21"/>
+      <c r="Q248" s="21"/>
+      <c r="R248" s="21"/>
+      <c r="S248" s="21"/>
+      <c r="T248" s="21"/>
+      <c r="U248" s="21"/>
+      <c r="V248" s="21"/>
+      <c r="W248" s="21"/>
+      <c r="X248" s="21"/>
+      <c r="Y248" s="21"/>
+      <c r="Z248" s="21"/>
+      <c r="AA248" s="21"/>
+      <c r="AB248" s="21"/>
+    </row>
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A249" s="20">
         <v>41863</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="21"/>
+      <c r="J249" s="21"/>
+      <c r="K249" s="21"/>
+      <c r="L249" s="21"/>
+      <c r="M249" s="21"/>
+      <c r="N249" s="21"/>
+      <c r="O249" s="21"/>
+      <c r="P249" s="21"/>
+      <c r="Q249" s="21"/>
+      <c r="R249" s="21"/>
+      <c r="S249" s="21"/>
+      <c r="T249" s="21"/>
+      <c r="U249" s="21"/>
+      <c r="V249" s="21"/>
+      <c r="W249" s="21"/>
+      <c r="X249" s="21"/>
+      <c r="Y249" s="21"/>
+      <c r="Z249" s="21"/>
+      <c r="AA249" s="21"/>
+      <c r="AB249" s="21"/>
+    </row>
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A250" s="20">
         <v>41864</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+      <c r="B250" s="21"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="21"/>
+      <c r="J250" s="21"/>
+      <c r="K250" s="21"/>
+      <c r="L250" s="21"/>
+      <c r="M250" s="21"/>
+      <c r="N250" s="21"/>
+      <c r="O250" s="21"/>
+      <c r="P250" s="21"/>
+      <c r="Q250" s="21"/>
+      <c r="R250" s="21"/>
+      <c r="S250" s="21"/>
+      <c r="T250" s="21"/>
+      <c r="U250" s="21"/>
+      <c r="V250" s="21"/>
+      <c r="W250" s="21"/>
+      <c r="X250" s="21"/>
+      <c r="Y250" s="21"/>
+      <c r="Z250" s="21"/>
+      <c r="AA250" s="21"/>
+      <c r="AB250" s="21"/>
+    </row>
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A251" s="20">
         <v>41865</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+      <c r="B251" s="21"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="21"/>
+      <c r="J251" s="21"/>
+      <c r="K251" s="21"/>
+      <c r="L251" s="21"/>
+      <c r="M251" s="21"/>
+      <c r="N251" s="21"/>
+      <c r="O251" s="21"/>
+      <c r="P251" s="21"/>
+      <c r="Q251" s="21"/>
+      <c r="R251" s="21"/>
+      <c r="S251" s="21"/>
+      <c r="T251" s="21"/>
+      <c r="U251" s="21"/>
+      <c r="V251" s="21"/>
+      <c r="W251" s="21"/>
+      <c r="X251" s="21"/>
+      <c r="Y251" s="21"/>
+      <c r="Z251" s="21"/>
+      <c r="AA251" s="21"/>
+      <c r="AB251" s="21"/>
+    </row>
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A252" s="20">
         <v>41866</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
+      <c r="J252" s="21"/>
+      <c r="K252" s="21"/>
+      <c r="L252" s="21"/>
+      <c r="M252" s="21"/>
+      <c r="N252" s="21"/>
+      <c r="O252" s="21"/>
+      <c r="P252" s="21"/>
+      <c r="Q252" s="21"/>
+      <c r="R252" s="21"/>
+      <c r="S252" s="21"/>
+      <c r="T252" s="21"/>
+      <c r="U252" s="21"/>
+      <c r="V252" s="21"/>
+      <c r="W252" s="21"/>
+      <c r="X252" s="21"/>
+      <c r="Y252" s="21"/>
+      <c r="Z252" s="21"/>
+      <c r="AA252" s="21"/>
+      <c r="AB252" s="21"/>
+    </row>
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A253" s="20">
         <v>41867</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="21"/>
+      <c r="K253" s="21"/>
+      <c r="L253" s="21"/>
+      <c r="M253" s="21"/>
+      <c r="N253" s="21"/>
+      <c r="O253" s="21"/>
+      <c r="P253" s="21"/>
+      <c r="Q253" s="21"/>
+      <c r="R253" s="21"/>
+      <c r="S253" s="21"/>
+      <c r="T253" s="21"/>
+      <c r="U253" s="21"/>
+      <c r="V253" s="21"/>
+      <c r="W253" s="21"/>
+      <c r="X253" s="21"/>
+      <c r="Y253" s="21"/>
+      <c r="Z253" s="21"/>
+      <c r="AA253" s="21"/>
+      <c r="AB253" s="21"/>
+    </row>
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A254" s="20">
         <v>41868</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+      <c r="B254" s="21"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="21"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="21"/>
+      <c r="J254" s="21"/>
+      <c r="K254" s="21"/>
+      <c r="L254" s="21"/>
+      <c r="M254" s="21"/>
+      <c r="N254" s="21"/>
+      <c r="O254" s="21"/>
+      <c r="P254" s="21"/>
+      <c r="Q254" s="21"/>
+      <c r="R254" s="21"/>
+      <c r="S254" s="21"/>
+      <c r="T254" s="21"/>
+      <c r="U254" s="21"/>
+      <c r="V254" s="21"/>
+      <c r="W254" s="21"/>
+      <c r="X254" s="21"/>
+      <c r="Y254" s="21"/>
+      <c r="Z254" s="21"/>
+      <c r="AA254" s="21"/>
+      <c r="AB254" s="21"/>
+    </row>
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A255" s="20">
         <v>41869</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="21"/>
+      <c r="K255" s="21"/>
+      <c r="L255" s="21"/>
+      <c r="M255" s="21"/>
+      <c r="N255" s="21"/>
+      <c r="O255" s="21"/>
+      <c r="P255" s="21"/>
+      <c r="Q255" s="21"/>
+      <c r="R255" s="21"/>
+      <c r="S255" s="21"/>
+      <c r="T255" s="21"/>
+      <c r="U255" s="21"/>
+      <c r="V255" s="21"/>
+      <c r="W255" s="21"/>
+      <c r="X255" s="21"/>
+      <c r="Y255" s="21"/>
+      <c r="Z255" s="21"/>
+      <c r="AA255" s="21"/>
+      <c r="AB255" s="21"/>
+    </row>
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A256" s="20">
         <v>41870</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="B256" s="21"/>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="21"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="21"/>
+      <c r="J256" s="21"/>
+      <c r="K256" s="21"/>
+      <c r="L256" s="21"/>
+      <c r="M256" s="21"/>
+      <c r="N256" s="21"/>
+      <c r="O256" s="21"/>
+      <c r="P256" s="21"/>
+      <c r="Q256" s="21"/>
+      <c r="R256" s="21"/>
+      <c r="S256" s="21"/>
+      <c r="T256" s="21"/>
+      <c r="U256" s="21"/>
+      <c r="V256" s="21"/>
+      <c r="W256" s="21"/>
+      <c r="X256" s="21"/>
+      <c r="Y256" s="21"/>
+      <c r="Z256" s="21"/>
+      <c r="AA256" s="21"/>
+      <c r="AB256" s="21"/>
+    </row>
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A257" s="20">
         <v>41871</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+      <c r="J257" s="21"/>
+      <c r="K257" s="21"/>
+      <c r="L257" s="21"/>
+      <c r="M257" s="21"/>
+      <c r="N257" s="21"/>
+      <c r="O257" s="21"/>
+      <c r="P257" s="21"/>
+      <c r="Q257" s="21"/>
+      <c r="R257" s="21"/>
+      <c r="S257" s="21"/>
+      <c r="T257" s="21"/>
+      <c r="U257" s="21"/>
+      <c r="V257" s="21"/>
+      <c r="W257" s="21"/>
+      <c r="X257" s="21"/>
+      <c r="Y257" s="21"/>
+      <c r="Z257" s="21"/>
+      <c r="AA257" s="21"/>
+      <c r="AB257" s="21"/>
+    </row>
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A258" s="20">
         <v>41872</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="B258" s="21"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="21"/>
+      <c r="H258" s="21"/>
+      <c r="I258" s="21"/>
+      <c r="J258" s="21"/>
+      <c r="K258" s="21"/>
+      <c r="L258" s="21"/>
+      <c r="M258" s="21"/>
+      <c r="N258" s="21"/>
+      <c r="O258" s="21"/>
+      <c r="P258" s="21"/>
+      <c r="Q258" s="21"/>
+      <c r="R258" s="21"/>
+      <c r="S258" s="21"/>
+      <c r="T258" s="21"/>
+      <c r="U258" s="21"/>
+      <c r="V258" s="21"/>
+      <c r="W258" s="21"/>
+      <c r="X258" s="21"/>
+      <c r="Y258" s="21"/>
+      <c r="Z258" s="21"/>
+      <c r="AA258" s="21"/>
+      <c r="AB258" s="21"/>
+    </row>
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A259" s="20">
         <v>41873</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="B259" s="21"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
+      <c r="I259" s="21"/>
+      <c r="J259" s="21"/>
+      <c r="K259" s="21"/>
+      <c r="L259" s="21"/>
+      <c r="M259" s="21"/>
+      <c r="N259" s="21"/>
+      <c r="O259" s="21"/>
+      <c r="P259" s="21"/>
+      <c r="Q259" s="21"/>
+      <c r="R259" s="21"/>
+      <c r="S259" s="21"/>
+      <c r="T259" s="21"/>
+      <c r="U259" s="21"/>
+      <c r="V259" s="21"/>
+      <c r="W259" s="21"/>
+      <c r="X259" s="21"/>
+      <c r="Y259" s="21"/>
+      <c r="Z259" s="21"/>
+      <c r="AA259" s="21"/>
+      <c r="AB259" s="21"/>
+    </row>
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A260" s="20">
         <v>41874</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
+      <c r="I260" s="21"/>
+      <c r="J260" s="21"/>
+      <c r="K260" s="21"/>
+      <c r="L260" s="21"/>
+      <c r="M260" s="21"/>
+      <c r="N260" s="21"/>
+      <c r="O260" s="21"/>
+      <c r="P260" s="21"/>
+      <c r="Q260" s="21"/>
+      <c r="R260" s="21"/>
+      <c r="S260" s="21"/>
+      <c r="T260" s="21"/>
+      <c r="U260" s="21"/>
+      <c r="V260" s="21"/>
+      <c r="W260" s="21"/>
+      <c r="X260" s="21"/>
+      <c r="Y260" s="21"/>
+      <c r="Z260" s="21"/>
+      <c r="AA260" s="21"/>
+      <c r="AB260" s="21"/>
+    </row>
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A261" s="20">
         <v>41875</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="B261" s="21"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21"/>
+      <c r="I261" s="21"/>
+      <c r="J261" s="21"/>
+      <c r="K261" s="21"/>
+      <c r="L261" s="21"/>
+      <c r="M261" s="21"/>
+      <c r="N261" s="21"/>
+      <c r="O261" s="21"/>
+      <c r="P261" s="21"/>
+      <c r="Q261" s="21"/>
+      <c r="R261" s="21"/>
+      <c r="S261" s="21"/>
+      <c r="T261" s="21"/>
+      <c r="U261" s="21"/>
+      <c r="V261" s="21"/>
+      <c r="W261" s="21"/>
+      <c r="X261" s="21"/>
+      <c r="Y261" s="21"/>
+      <c r="Z261" s="21"/>
+      <c r="AA261" s="21"/>
+      <c r="AB261" s="21"/>
+    </row>
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A262" s="20">
         <v>41876</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="B262" s="21"/>
+      <c r="C262" s="21"/>
+      <c r="D262" s="21"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="21"/>
+      <c r="L262" s="21"/>
+      <c r="M262" s="21"/>
+      <c r="N262" s="21"/>
+      <c r="O262" s="21"/>
+      <c r="P262" s="21"/>
+      <c r="Q262" s="21"/>
+      <c r="R262" s="21"/>
+      <c r="S262" s="21"/>
+      <c r="T262" s="21"/>
+      <c r="U262" s="21"/>
+      <c r="V262" s="21"/>
+      <c r="W262" s="21"/>
+      <c r="X262" s="21"/>
+      <c r="Y262" s="21"/>
+      <c r="Z262" s="21"/>
+      <c r="AA262" s="21"/>
+      <c r="AB262" s="21"/>
+    </row>
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A263" s="20">
         <v>41877</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="B263" s="21"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="21"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="21"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="21"/>
+      <c r="N263" s="21"/>
+      <c r="O263" s="21"/>
+      <c r="P263" s="21"/>
+      <c r="Q263" s="21"/>
+      <c r="R263" s="21"/>
+      <c r="S263" s="21"/>
+      <c r="T263" s="21"/>
+      <c r="U263" s="21"/>
+      <c r="V263" s="21"/>
+      <c r="W263" s="21"/>
+      <c r="X263" s="21"/>
+      <c r="Y263" s="21"/>
+      <c r="Z263" s="21"/>
+      <c r="AA263" s="21"/>
+      <c r="AB263" s="21"/>
+    </row>
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A264" s="20">
         <v>41878</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="B264" s="21"/>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="21"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21"/>
+      <c r="I264" s="21"/>
+      <c r="J264" s="21"/>
+      <c r="K264" s="21"/>
+      <c r="L264" s="21"/>
+      <c r="M264" s="21"/>
+      <c r="N264" s="21"/>
+      <c r="O264" s="21"/>
+      <c r="P264" s="21"/>
+      <c r="Q264" s="21"/>
+      <c r="R264" s="21"/>
+      <c r="S264" s="21"/>
+      <c r="T264" s="21"/>
+      <c r="U264" s="21"/>
+      <c r="V264" s="21"/>
+      <c r="W264" s="21"/>
+      <c r="X264" s="21"/>
+      <c r="Y264" s="21"/>
+      <c r="Z264" s="21"/>
+      <c r="AA264" s="21"/>
+      <c r="AB264" s="21"/>
+    </row>
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A265" s="20">
         <v>41879</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="B265" s="21"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="21"/>
+      <c r="H265" s="21"/>
+      <c r="I265" s="21"/>
+      <c r="J265" s="21"/>
+      <c r="K265" s="21"/>
+      <c r="L265" s="21"/>
+      <c r="M265" s="21"/>
+      <c r="N265" s="21"/>
+      <c r="O265" s="21"/>
+      <c r="P265" s="21"/>
+      <c r="Q265" s="21"/>
+      <c r="R265" s="21"/>
+      <c r="S265" s="21"/>
+      <c r="T265" s="21"/>
+      <c r="U265" s="21"/>
+      <c r="V265" s="21"/>
+      <c r="W265" s="21"/>
+      <c r="X265" s="21"/>
+      <c r="Y265" s="21"/>
+      <c r="Z265" s="21"/>
+      <c r="AA265" s="21"/>
+      <c r="AB265" s="21"/>
+    </row>
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A266" s="20">
         <v>41880</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+      <c r="B266" s="21"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21"/>
+      <c r="I266" s="21"/>
+      <c r="J266" s="21"/>
+      <c r="K266" s="21"/>
+      <c r="L266" s="21"/>
+      <c r="M266" s="21"/>
+      <c r="N266" s="21"/>
+      <c r="O266" s="21"/>
+      <c r="P266" s="21"/>
+      <c r="Q266" s="21"/>
+      <c r="R266" s="21"/>
+      <c r="S266" s="21"/>
+      <c r="T266" s="21"/>
+      <c r="U266" s="21"/>
+      <c r="V266" s="21"/>
+      <c r="W266" s="21"/>
+      <c r="X266" s="21"/>
+      <c r="Y266" s="21"/>
+      <c r="Z266" s="21"/>
+      <c r="AA266" s="21"/>
+      <c r="AB266" s="21"/>
+    </row>
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A267" s="20">
         <v>41881</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+      <c r="B267" s="21"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="21"/>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21"/>
+      <c r="I267" s="21"/>
+      <c r="J267" s="21"/>
+      <c r="K267" s="21"/>
+      <c r="L267" s="21"/>
+      <c r="M267" s="21"/>
+      <c r="N267" s="21"/>
+      <c r="O267" s="21"/>
+      <c r="P267" s="21"/>
+      <c r="Q267" s="21"/>
+      <c r="R267" s="21"/>
+      <c r="S267" s="21"/>
+      <c r="T267" s="21"/>
+      <c r="U267" s="21"/>
+      <c r="V267" s="21"/>
+      <c r="W267" s="21"/>
+      <c r="X267" s="21"/>
+      <c r="Y267" s="21"/>
+      <c r="Z267" s="21"/>
+      <c r="AA267" s="21"/>
+      <c r="AB267" s="21"/>
+    </row>
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A268" s="20">
         <v>41882</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="B268" s="21"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21"/>
+      <c r="I268" s="21"/>
+      <c r="J268" s="21"/>
+      <c r="K268" s="21"/>
+      <c r="L268" s="21"/>
+      <c r="M268" s="21"/>
+      <c r="N268" s="21"/>
+      <c r="O268" s="21"/>
+      <c r="P268" s="21"/>
+      <c r="Q268" s="21"/>
+      <c r="R268" s="21"/>
+      <c r="S268" s="21"/>
+      <c r="T268" s="21"/>
+      <c r="U268" s="21"/>
+      <c r="V268" s="21"/>
+      <c r="W268" s="21"/>
+      <c r="X268" s="21"/>
+      <c r="Y268" s="21"/>
+      <c r="Z268" s="21"/>
+      <c r="AA268" s="21"/>
+      <c r="AB268" s="21"/>
+    </row>
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A269" s="20">
         <v>41883</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+      <c r="B269" s="21"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="21"/>
+      <c r="H269" s="21"/>
+      <c r="I269" s="21"/>
+      <c r="J269" s="21"/>
+      <c r="K269" s="21"/>
+      <c r="L269" s="21"/>
+      <c r="M269" s="21"/>
+      <c r="N269" s="21"/>
+      <c r="O269" s="21"/>
+      <c r="P269" s="21"/>
+      <c r="Q269" s="21"/>
+      <c r="R269" s="21"/>
+      <c r="S269" s="21"/>
+      <c r="T269" s="21"/>
+      <c r="U269" s="21"/>
+      <c r="V269" s="21"/>
+      <c r="W269" s="21"/>
+      <c r="X269" s="21"/>
+      <c r="Y269" s="21"/>
+      <c r="Z269" s="21"/>
+      <c r="AA269" s="21"/>
+      <c r="AB269" s="21"/>
+    </row>
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A270" s="20">
         <v>41884</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="B270" s="21"/>
+      <c r="C270" s="21"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="21"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="21"/>
+      <c r="H270" s="21"/>
+      <c r="I270" s="21"/>
+      <c r="J270" s="21"/>
+      <c r="K270" s="21"/>
+      <c r="L270" s="21"/>
+      <c r="M270" s="21"/>
+      <c r="N270" s="21"/>
+      <c r="O270" s="21"/>
+      <c r="P270" s="21"/>
+      <c r="Q270" s="21"/>
+      <c r="R270" s="21"/>
+      <c r="S270" s="21"/>
+      <c r="T270" s="21"/>
+      <c r="U270" s="21"/>
+      <c r="V270" s="21"/>
+      <c r="W270" s="21"/>
+      <c r="X270" s="21"/>
+      <c r="Y270" s="21"/>
+      <c r="Z270" s="21"/>
+      <c r="AA270" s="21"/>
+      <c r="AB270" s="21"/>
+    </row>
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A271" s="20">
         <v>41885</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+      <c r="B271" s="21"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21"/>
+      <c r="I271" s="21"/>
+      <c r="J271" s="21"/>
+      <c r="K271" s="21"/>
+      <c r="L271" s="21"/>
+      <c r="M271" s="21"/>
+      <c r="N271" s="21"/>
+      <c r="O271" s="21"/>
+      <c r="P271" s="21"/>
+      <c r="Q271" s="21"/>
+      <c r="R271" s="21"/>
+      <c r="S271" s="21"/>
+      <c r="T271" s="21"/>
+      <c r="U271" s="21"/>
+      <c r="V271" s="21"/>
+      <c r="W271" s="21"/>
+      <c r="X271" s="21"/>
+      <c r="Y271" s="21"/>
+      <c r="Z271" s="21"/>
+      <c r="AA271" s="21"/>
+      <c r="AB271" s="21"/>
+    </row>
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A272" s="20">
         <v>41886</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="B272" s="21"/>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="21"/>
+      <c r="G272" s="21"/>
+      <c r="H272" s="21"/>
+      <c r="I272" s="21"/>
+      <c r="J272" s="21"/>
+      <c r="K272" s="21"/>
+      <c r="L272" s="21"/>
+      <c r="M272" s="21"/>
+      <c r="N272" s="21"/>
+      <c r="O272" s="21"/>
+      <c r="P272" s="21"/>
+      <c r="Q272" s="21"/>
+      <c r="R272" s="21"/>
+      <c r="S272" s="21"/>
+      <c r="T272" s="21"/>
+      <c r="U272" s="21"/>
+      <c r="V272" s="21"/>
+      <c r="W272" s="21"/>
+      <c r="X272" s="21"/>
+      <c r="Y272" s="21"/>
+      <c r="Z272" s="21"/>
+      <c r="AA272" s="21"/>
+      <c r="AB272" s="21"/>
+    </row>
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A273" s="20">
         <v>41887</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="B273" s="21"/>
+      <c r="C273" s="21"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+      <c r="J273" s="21"/>
+      <c r="K273" s="21"/>
+      <c r="L273" s="21"/>
+      <c r="M273" s="21"/>
+      <c r="N273" s="21"/>
+      <c r="O273" s="21"/>
+      <c r="P273" s="21"/>
+      <c r="Q273" s="21"/>
+      <c r="R273" s="21"/>
+      <c r="S273" s="21"/>
+      <c r="T273" s="21"/>
+      <c r="U273" s="21"/>
+      <c r="V273" s="21"/>
+      <c r="W273" s="21"/>
+      <c r="X273" s="21"/>
+      <c r="Y273" s="21"/>
+      <c r="Z273" s="21"/>
+      <c r="AA273" s="21"/>
+      <c r="AB273" s="21"/>
+    </row>
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A274" s="20">
         <v>41888</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="B274" s="21"/>
+      <c r="C274" s="21"/>
+      <c r="D274" s="21"/>
+      <c r="E274" s="21"/>
+      <c r="F274" s="21"/>
+      <c r="G274" s="21"/>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
+      <c r="J274" s="21"/>
+      <c r="K274" s="21"/>
+      <c r="L274" s="21"/>
+      <c r="M274" s="21"/>
+      <c r="N274" s="21"/>
+      <c r="O274" s="21"/>
+      <c r="P274" s="21"/>
+      <c r="Q274" s="21"/>
+      <c r="R274" s="21"/>
+      <c r="S274" s="21"/>
+      <c r="T274" s="21"/>
+      <c r="U274" s="21"/>
+      <c r="V274" s="21"/>
+      <c r="W274" s="21"/>
+      <c r="X274" s="21"/>
+      <c r="Y274" s="21"/>
+      <c r="Z274" s="21"/>
+      <c r="AA274" s="21"/>
+      <c r="AB274" s="21"/>
+    </row>
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A275" s="20">
         <v>41889</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="21"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="21"/>
+      <c r="H275" s="21"/>
+      <c r="I275" s="21"/>
+      <c r="J275" s="21"/>
+      <c r="K275" s="21"/>
+      <c r="L275" s="21"/>
+      <c r="M275" s="21"/>
+      <c r="N275" s="21"/>
+      <c r="O275" s="21"/>
+      <c r="P275" s="21"/>
+      <c r="Q275" s="21"/>
+      <c r="R275" s="21"/>
+      <c r="S275" s="21"/>
+      <c r="T275" s="21"/>
+      <c r="U275" s="21"/>
+      <c r="V275" s="21"/>
+      <c r="W275" s="21"/>
+      <c r="X275" s="21"/>
+      <c r="Y275" s="21"/>
+      <c r="Z275" s="21"/>
+      <c r="AA275" s="21"/>
+      <c r="AB275" s="21"/>
+    </row>
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A276" s="20">
         <v>41890</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="B276" s="21"/>
+      <c r="C276" s="21"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21"/>
+      <c r="H276" s="21"/>
+      <c r="I276" s="21"/>
+      <c r="J276" s="21"/>
+      <c r="K276" s="21"/>
+      <c r="L276" s="21"/>
+      <c r="M276" s="21"/>
+      <c r="N276" s="21"/>
+      <c r="O276" s="21"/>
+      <c r="P276" s="21"/>
+      <c r="Q276" s="21"/>
+      <c r="R276" s="21"/>
+      <c r="S276" s="21"/>
+      <c r="T276" s="21"/>
+      <c r="U276" s="21"/>
+      <c r="V276" s="21"/>
+      <c r="W276" s="21"/>
+      <c r="X276" s="21"/>
+      <c r="Y276" s="21"/>
+      <c r="Z276" s="21"/>
+      <c r="AA276" s="21"/>
+      <c r="AB276" s="21"/>
+    </row>
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A277" s="20">
         <v>41891</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="B277" s="21"/>
+      <c r="C277" s="21"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="21"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="21"/>
+      <c r="H277" s="21"/>
+      <c r="I277" s="21"/>
+      <c r="J277" s="21"/>
+      <c r="K277" s="21"/>
+      <c r="L277" s="21"/>
+      <c r="M277" s="21"/>
+      <c r="N277" s="21"/>
+      <c r="O277" s="21"/>
+      <c r="P277" s="21"/>
+      <c r="Q277" s="21"/>
+      <c r="R277" s="21"/>
+      <c r="S277" s="21"/>
+      <c r="T277" s="21"/>
+      <c r="U277" s="21"/>
+      <c r="V277" s="21"/>
+      <c r="W277" s="21"/>
+      <c r="X277" s="21"/>
+      <c r="Y277" s="21"/>
+      <c r="Z277" s="21"/>
+      <c r="AA277" s="21"/>
+      <c r="AB277" s="21"/>
+    </row>
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A278" s="20">
         <v>41892</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="B278" s="21"/>
+      <c r="C278" s="21"/>
+      <c r="D278" s="21"/>
+      <c r="E278" s="21"/>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
+      <c r="H278" s="21"/>
+      <c r="I278" s="21"/>
+      <c r="J278" s="21"/>
+      <c r="K278" s="21"/>
+      <c r="L278" s="21"/>
+      <c r="M278" s="21"/>
+      <c r="N278" s="21"/>
+      <c r="O278" s="21"/>
+      <c r="P278" s="21"/>
+      <c r="Q278" s="21"/>
+      <c r="R278" s="21"/>
+      <c r="S278" s="21"/>
+      <c r="T278" s="21"/>
+      <c r="U278" s="21"/>
+      <c r="V278" s="21"/>
+      <c r="W278" s="21"/>
+      <c r="X278" s="21"/>
+      <c r="Y278" s="21"/>
+      <c r="Z278" s="21"/>
+      <c r="AA278" s="21"/>
+      <c r="AB278" s="21"/>
+    </row>
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A279" s="20">
         <v>41893</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+      <c r="B279" s="21"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
+      <c r="H279" s="21"/>
+      <c r="I279" s="21"/>
+      <c r="J279" s="21"/>
+      <c r="K279" s="21"/>
+      <c r="L279" s="21"/>
+      <c r="M279" s="21"/>
+      <c r="N279" s="21"/>
+      <c r="O279" s="21"/>
+      <c r="P279" s="21"/>
+      <c r="Q279" s="21"/>
+      <c r="R279" s="21"/>
+      <c r="S279" s="21"/>
+      <c r="T279" s="21"/>
+      <c r="U279" s="21"/>
+      <c r="V279" s="21"/>
+      <c r="W279" s="21"/>
+      <c r="X279" s="21"/>
+      <c r="Y279" s="21"/>
+      <c r="Z279" s="21"/>
+      <c r="AA279" s="21"/>
+      <c r="AB279" s="21"/>
+    </row>
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A280" s="20">
         <v>41894</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+      <c r="B280" s="21"/>
+      <c r="C280" s="21"/>
+      <c r="D280" s="21"/>
+      <c r="E280" s="21"/>
+      <c r="F280" s="21"/>
+      <c r="G280" s="21"/>
+      <c r="H280" s="21"/>
+      <c r="I280" s="21"/>
+      <c r="J280" s="21"/>
+      <c r="K280" s="21"/>
+      <c r="L280" s="21"/>
+      <c r="M280" s="21"/>
+      <c r="N280" s="21"/>
+      <c r="O280" s="21"/>
+      <c r="P280" s="21"/>
+      <c r="Q280" s="21"/>
+      <c r="R280" s="21"/>
+      <c r="S280" s="21"/>
+      <c r="T280" s="21"/>
+      <c r="U280" s="21"/>
+      <c r="V280" s="21"/>
+      <c r="W280" s="21"/>
+      <c r="X280" s="21"/>
+      <c r="Y280" s="21"/>
+      <c r="Z280" s="21"/>
+      <c r="AA280" s="21"/>
+      <c r="AB280" s="21"/>
+    </row>
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A281" s="20">
         <v>41895</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="21"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="21"/>
+      <c r="J281" s="21"/>
+      <c r="K281" s="21"/>
+      <c r="L281" s="21"/>
+      <c r="M281" s="21"/>
+      <c r="N281" s="21"/>
+      <c r="O281" s="21"/>
+      <c r="P281" s="21"/>
+      <c r="Q281" s="21"/>
+      <c r="R281" s="21"/>
+      <c r="S281" s="21"/>
+      <c r="T281" s="21"/>
+      <c r="U281" s="21"/>
+      <c r="V281" s="21"/>
+      <c r="W281" s="21"/>
+      <c r="X281" s="21"/>
+      <c r="Y281" s="21"/>
+      <c r="Z281" s="21"/>
+      <c r="AA281" s="21"/>
+      <c r="AB281" s="21"/>
+    </row>
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>41896</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>41897</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>41898</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>41899</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>41900</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>41901</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>41902</v>
       </c>
@@ -30433,6 +35350,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="C107:Z107"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="I2:K2"/>
@@ -30449,15 +35375,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="C74:Z74"/>
-    <mergeCell ref="C107:Z107"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30473,133 +35390,133 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
+      <selection pane="bottomRight" activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="78">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="81">
         <v>41675</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="S2" s="75" t="s">
+      <c r="M2" s="81"/>
+      <c r="S2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="75"/>
+      <c r="T2" s="78"/>
       <c r="U2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="78">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="81">
         <v>41703</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="S3" s="76" t="s">
+      <c r="M3" s="81"/>
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="76"/>
+      <c r="T3" s="79"/>
       <c r="U3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="77"/>
+      <c r="T4" s="80"/>
       <c r="U4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77">
         <f>SUM(E11:E375)+SUM(I11:I375)+SUM(M11:M375)+SUM(Q11:Q375)+SUM(U11:U375)+SUM(Z11:Z375)</f>
         <v>3.5</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73">
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>4.75</v>
       </c>
-      <c r="M6" s="73"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="74" t="s">
+      <c r="W9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -32571,6 +37488,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="I2:K2"/>
@@ -32584,13 +37508,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Suivi-2014.xlsx
+++ b/Suivi-2014.xlsx
@@ -4375,6 +4375,133 @@
         </r>
       </text>
     </comment>
+    <comment ref="S228" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2440-2
+LGFP-2439-2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S229" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LGFP-2439-2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S234" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2440 m.webmarchand (integration fiche point de vente)
+- LGFP-2439 m.webmarchand (integration page marchand)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S235" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-2736 :: OGPE Rentrée 2014 - dispositif OGPE LG (sans sponsors)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S238" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anis Abid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- LGFP-1908 :: Lg EasyV - Page Hotel - Refonte page résultats
+[15:32:15] omar elloumi: * LGFP-2439 (m.webmarchand.com : correction header page résultat)
+* LGFP-2765 (m.webmarchand.com : mise en forme haut page marchand)
+* LGFP-2736 (Rentrée 2014 - dispositif OGPE ajout des ids)
+* LGFP-1908 (easy voyage - page hotel - refonte page résultats sur v6 analyse)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -4450,7 +4577,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="188">
   <si>
     <t>Notaires.fr</t>
   </si>
@@ -5047,7 +5174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5141,6 +5268,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="23">
@@ -5554,9 +5694,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5571,28 +5711,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5600,6 +5734,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5999,19 +6139,19 @@
       <c r="C5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="90" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6020,27 +6160,27 @@
         <v>145</v>
       </c>
       <c r="C6" s="64"/>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="91"/>
+      <c r="B7" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="89"/>
       <c r="D7" s="65">
         <f>SUM('Notaires.fr Imputation'!D70:D100)</f>
         <v>4.25</v>
@@ -6063,10 +6203,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="65">
         <f>SUM(Sofrecom.com!D70:D100)</f>
         <v>0</v>
@@ -6089,10 +6229,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="65">
         <f>SUM(LeGuide!D75:D105)</f>
         <v>0</v>
@@ -6115,10 +6255,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="65">
         <f>SUM(Sircom!D70:D100)</f>
         <v>0</v>
@@ -6141,10 +6281,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="65">
         <f>SUM('Notaires.fr Imputation'!D74:D104)</f>
         <v>4.25</v>
@@ -6198,16 +6338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11418,7 +11558,7 @@
       </c>
       <c r="F218">
         <f>'Notaires.fr Imputation'!T215+Sofrecom.com!T215+LeGuide!T228+PFE!T215+Sircom!T215</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11443,7 +11583,7 @@
       </c>
       <c r="F219">
         <f>'Notaires.fr Imputation'!T216+Sofrecom.com!T216+LeGuide!T229+PFE!T216+Sircom!T216</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11568,7 +11708,7 @@
       </c>
       <c r="F224">
         <f>'Notaires.fr Imputation'!T221+Sofrecom.com!T221+LeGuide!T234+PFE!T221+Sircom!T221</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11593,7 +11733,7 @@
       </c>
       <c r="F225">
         <f>'Notaires.fr Imputation'!T222+Sofrecom.com!T222+LeGuide!T235+PFE!T222+Sircom!T222</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11618,7 +11758,7 @@
       </c>
       <c r="F226">
         <f>'Notaires.fr Imputation'!T223+Sofrecom.com!T223+LeGuide!T238+PFE!T223+Sircom!T223</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -15467,15 +15607,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="81">
         <v>41675</v>
       </c>
-      <c r="M2" s="77"/>
+      <c r="M2" s="76"/>
       <c r="S2" s="78" t="s">
         <v>15</v>
       </c>
@@ -15485,15 +15625,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="81">
         <v>41703</v>
       </c>
-      <c r="M3" s="77"/>
+      <c r="M3" s="76"/>
       <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
@@ -15512,83 +15652,83 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77">
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76">
         <v>14</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="B6" s="66"/>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>36.75</v>
       </c>
-      <c r="M6" s="77"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77">
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
         <f>L5-L6</f>
         <v>-22.75</v>
       </c>
-      <c r="M7" s="77"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="82" t="s">
+      <c r="W9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="76" t="s">
+      <c r="AB9" s="82" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15596,7 +15736,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -15657,7 +15797,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="76"/>
+      <c r="AB10" s="82"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -20118,6 +20258,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
@@ -20127,18 +20279,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20167,11 +20307,11 @@
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
@@ -20407,15 +20547,15 @@
       <c r="B20" s="25">
         <v>68496</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
       <c r="J20" s="2">
         <v>41710</v>
       </c>
@@ -20427,15 +20567,15 @@
       <c r="B21" s="25">
         <v>68495</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
       <c r="J21" s="2">
         <v>41710</v>
       </c>
@@ -20447,15 +20587,15 @@
       <c r="B22" s="25">
         <v>68448</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
       <c r="J22" s="2">
         <v>41710</v>
       </c>
@@ -20483,14 +20623,14 @@
       <c r="B24" s="26">
         <v>68489</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -20541,14 +20681,14 @@
       <c r="B27" s="26">
         <v>68672</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="27" t="s">
         <v>69</v>
       </c>
@@ -20579,14 +20719,14 @@
       <c r="B29" s="26">
         <v>68666</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="26" t="s">
         <v>69</v>
       </c>
@@ -20601,14 +20741,14 @@
       <c r="B30" s="26">
         <v>68670</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="26" t="s">
         <v>69</v>
       </c>
@@ -20623,12 +20763,12 @@
       <c r="B31" s="26">
         <v>68697</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="26" t="s">
         <v>69</v>
       </c>
@@ -20641,11 +20781,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C29:H29"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C23:H23"/>
@@ -20653,6 +20788,11 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21296,15 +21436,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="81">
         <v>41675</v>
       </c>
-      <c r="M2" s="77"/>
+      <c r="M2" s="76"/>
       <c r="S2" s="78" t="s">
         <v>15</v>
       </c>
@@ -21314,15 +21454,15 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="81">
         <v>41703</v>
       </c>
-      <c r="M3" s="77"/>
+      <c r="M3" s="76"/>
       <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
@@ -21341,86 +21481,86 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77">
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76">
         <v>14</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76">
         <v>12</v>
       </c>
-      <c r="M6" s="77"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77">
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
         <f>L5-L6</f>
         <v>2</v>
       </c>
-      <c r="M7" s="77"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="82" t="s">
+      <c r="W9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -25299,6 +25439,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="I5:K5"/>
@@ -25311,14 +25459,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="S9:U9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25330,10 +25470,10 @@
   <dimension ref="A2:XFA390"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="T228" sqref="T228"/>
+      <selection pane="bottomRight" activeCell="S244" sqref="S244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -25354,11 +25494,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="81">
         <v>41675</v>
       </c>
@@ -25372,11 +25512,11 @@
       </c>
     </row>
     <row r="3" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="81">
         <v>41703</v>
       </c>
@@ -25399,78 +25539,78 @@
       </c>
     </row>
     <row r="5" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77">
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76">
         <f>SUM(E12:E390)+SUM(I12:I390)+SUM(M12:M390)+SUM(Q12:Q390)+SUM(U12:U390)+SUM(Z12:Z390)</f>
-        <v>231</v>
-      </c>
-      <c r="M5" s="77"/>
+        <v>236</v>
+      </c>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76">
         <f>SUM(D12:D390)+SUM(H12:H390)+SUM(L12:L390)+SUM(P12:P390)+SUM(T12:T390)+SUM(Y12:Y390)</f>
-        <v>262.25</v>
-      </c>
-      <c r="M6" s="77"/>
+        <v>267.25</v>
+      </c>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="9" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="82" t="s">
+      <c r="W9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="76" t="s">
+      <c r="AB9" s="82" t="s">
         <v>57</v>
       </c>
     </row>
@@ -25478,7 +25618,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -25539,7 +25679,7 @@
       <c r="Z10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="76"/>
+      <c r="AB10" s="82"/>
     </row>
     <row r="11" spans="1:1015 1041:2029 2055:3069 3095:4083 4109:5097 5123:6137 6163:7151 7177:8191 8217:9205 9231:10219 10245:11259 11285:12273 12299:13287 13313:14327 14353:15341 15367:16381" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
@@ -33037,7 +33177,7 @@
       <c r="AA224" s="57"/>
       <c r="AB224" s="57"/>
     </row>
-    <row r="225" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>41841</v>
       </c>
@@ -33075,7 +33215,7 @@
       <c r="AA225" s="21"/>
       <c r="AB225" s="21"/>
     </row>
-    <row r="226" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>41842</v>
       </c>
@@ -33111,7 +33251,7 @@
       <c r="AA226" s="21"/>
       <c r="AB226" s="21"/>
     </row>
-    <row r="227" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>41843</v>
       </c>
@@ -33153,7 +33293,7 @@
       <c r="AA227" s="21"/>
       <c r="AB227" s="21"/>
     </row>
-    <row r="228" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>41844</v>
       </c>
@@ -33180,9 +33320,15 @@
       <c r="P228" s="21"/>
       <c r="Q228" s="21"/>
       <c r="R228" s="21"/>
-      <c r="S228" s="21"/>
-      <c r="T228" s="21"/>
-      <c r="U228" s="21"/>
+      <c r="S228" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T228" s="21">
+        <v>1</v>
+      </c>
+      <c r="U228" s="21">
+        <v>1</v>
+      </c>
       <c r="V228" s="21"/>
       <c r="W228" s="21"/>
       <c r="X228" s="21"/>
@@ -33191,7 +33337,7 @@
       <c r="AA228" s="21"/>
       <c r="AB228" s="21"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20">
         <v>41845</v>
       </c>
@@ -33218,9 +33364,15 @@
       <c r="P229" s="21"/>
       <c r="Q229" s="21"/>
       <c r="R229" s="21"/>
-      <c r="S229" s="21"/>
-      <c r="T229" s="21"/>
-      <c r="U229" s="21"/>
+      <c r="S229" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T229" s="21">
+        <v>1</v>
+      </c>
+      <c r="U229" s="21">
+        <v>1</v>
+      </c>
       <c r="V229" s="21"/>
       <c r="W229" s="21"/>
       <c r="X229" s="21"/>
@@ -33229,7 +33381,7 @@
       <c r="AA229" s="21"/>
       <c r="AB229" s="21"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="58">
         <v>41846</v>
       </c>
@@ -33261,7 +33413,7 @@
       <c r="AA230" s="59"/>
       <c r="AB230" s="59"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="56">
         <v>41847</v>
       </c>
@@ -33293,7 +33445,7 @@
       <c r="AA231" s="57"/>
       <c r="AB231" s="57"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20">
         <v>41848</v>
       </c>
@@ -33335,7 +33487,7 @@
       <c r="AA232" s="21"/>
       <c r="AB232" s="21"/>
     </row>
-    <row r="233" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20">
         <v>41849</v>
       </c>
@@ -33377,7 +33529,7 @@
       <c r="AA233" s="21"/>
       <c r="AB233" s="21"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20">
         <v>41850</v>
       </c>
@@ -33398,9 +33550,15 @@
       <c r="P234" s="21"/>
       <c r="Q234" s="21"/>
       <c r="R234" s="21"/>
-      <c r="S234" s="21"/>
-      <c r="T234" s="21"/>
-      <c r="U234" s="21"/>
+      <c r="S234" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T234" s="21">
+        <v>1</v>
+      </c>
+      <c r="U234" s="21">
+        <v>1</v>
+      </c>
       <c r="V234" s="21"/>
       <c r="W234" s="21"/>
       <c r="X234" s="21"/>
@@ -33409,7 +33567,7 @@
       <c r="AA234" s="21"/>
       <c r="AB234" s="21"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20">
         <v>41851</v>
       </c>
@@ -33430,9 +33588,15 @@
       <c r="P235" s="21"/>
       <c r="Q235" s="21"/>
       <c r="R235" s="21"/>
-      <c r="S235" s="21"/>
-      <c r="T235" s="21"/>
-      <c r="U235" s="21"/>
+      <c r="S235" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T235" s="21">
+        <v>1</v>
+      </c>
+      <c r="U235" s="21">
+        <v>1</v>
+      </c>
       <c r="V235" s="21"/>
       <c r="W235" s="21"/>
       <c r="X235" s="21"/>
@@ -33441,20 +33605,29 @@
       <c r="AA235" s="21"/>
       <c r="AB235" s="21"/>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>41852</v>
       </c>
-    </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S238" t="s">
+        <v>47</v>
+      </c>
+      <c r="T238">
+        <v>1</v>
+      </c>
+      <c r="U238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" s="58">
         <v>41853</v>
       </c>
@@ -33486,7 +33659,7 @@
       <c r="AA239" s="59"/>
       <c r="AB239" s="59"/>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" s="56">
         <v>41854</v>
       </c>
@@ -33517,11 +33690,19 @@
       <c r="Z240" s="57"/>
       <c r="AA240" s="57"/>
       <c r="AB240" s="57"/>
+      <c r="AD240" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>41855</v>
       </c>
+      <c r="S241" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T241" s="53"/>
+      <c r="U241" s="53"/>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="20">
@@ -33544,9 +33725,11 @@
       <c r="P242" s="21"/>
       <c r="Q242" s="21"/>
       <c r="R242" s="21"/>
-      <c r="S242" s="21"/>
-      <c r="T242" s="21"/>
-      <c r="U242" s="21"/>
+      <c r="S242" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T242" s="53"/>
+      <c r="U242" s="53"/>
       <c r="V242" s="21"/>
       <c r="W242" s="21"/>
       <c r="X242" s="21"/>
@@ -33576,9 +33759,11 @@
       <c r="P243" s="21"/>
       <c r="Q243" s="21"/>
       <c r="R243" s="21"/>
-      <c r="S243" s="21"/>
-      <c r="T243" s="21"/>
-      <c r="U243" s="21"/>
+      <c r="S243" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T243" s="53"/>
+      <c r="U243" s="53"/>
       <c r="V243" s="21"/>
       <c r="W243" s="21"/>
       <c r="X243" s="21"/>
@@ -33608,9 +33793,11 @@
       <c r="P244" s="21"/>
       <c r="Q244" s="21"/>
       <c r="R244" s="21"/>
-      <c r="S244" s="21"/>
-      <c r="T244" s="21"/>
-      <c r="U244" s="21"/>
+      <c r="S244" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T244" s="53"/>
+      <c r="U244" s="53"/>
       <c r="V244" s="21"/>
       <c r="W244" s="21"/>
       <c r="X244" s="21"/>
@@ -33640,9 +33827,11 @@
       <c r="P245" s="21"/>
       <c r="Q245" s="21"/>
       <c r="R245" s="21"/>
-      <c r="S245" s="21"/>
-      <c r="T245" s="21"/>
-      <c r="U245" s="21"/>
+      <c r="S245" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T245" s="53"/>
+      <c r="U245" s="53"/>
       <c r="V245" s="21"/>
       <c r="W245" s="21"/>
       <c r="X245" s="21"/>
@@ -33864,9 +34053,11 @@
       <c r="P252" s="21"/>
       <c r="Q252" s="21"/>
       <c r="R252" s="21"/>
-      <c r="S252" s="21"/>
-      <c r="T252" s="21"/>
-      <c r="U252" s="21"/>
+      <c r="S252" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T252" s="53"/>
+      <c r="U252" s="53"/>
       <c r="V252" s="21"/>
       <c r="W252" s="21"/>
       <c r="X252" s="21"/>
@@ -33876,68 +34067,68 @@
       <c r="AB252" s="21"/>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A253" s="20">
+      <c r="A253" s="58">
         <v>41867</v>
       </c>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="21"/>
-      <c r="J253" s="21"/>
-      <c r="K253" s="21"/>
-      <c r="L253" s="21"/>
-      <c r="M253" s="21"/>
-      <c r="N253" s="21"/>
-      <c r="O253" s="21"/>
-      <c r="P253" s="21"/>
-      <c r="Q253" s="21"/>
-      <c r="R253" s="21"/>
-      <c r="S253" s="21"/>
-      <c r="T253" s="21"/>
-      <c r="U253" s="21"/>
-      <c r="V253" s="21"/>
-      <c r="W253" s="21"/>
-      <c r="X253" s="21"/>
-      <c r="Y253" s="21"/>
-      <c r="Z253" s="21"/>
-      <c r="AA253" s="21"/>
-      <c r="AB253" s="21"/>
+      <c r="B253" s="59"/>
+      <c r="C253" s="59"/>
+      <c r="D253" s="59"/>
+      <c r="E253" s="59"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="59"/>
+      <c r="H253" s="59"/>
+      <c r="I253" s="59"/>
+      <c r="J253" s="59"/>
+      <c r="K253" s="59"/>
+      <c r="L253" s="59"/>
+      <c r="M253" s="59"/>
+      <c r="N253" s="59"/>
+      <c r="O253" s="59"/>
+      <c r="P253" s="59"/>
+      <c r="Q253" s="59"/>
+      <c r="R253" s="59"/>
+      <c r="S253" s="59"/>
+      <c r="T253" s="59"/>
+      <c r="U253" s="59"/>
+      <c r="V253" s="59"/>
+      <c r="W253" s="59"/>
+      <c r="X253" s="59"/>
+      <c r="Y253" s="59"/>
+      <c r="Z253" s="59"/>
+      <c r="AA253" s="59"/>
+      <c r="AB253" s="59"/>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A254" s="20">
+      <c r="A254" s="56">
         <v>41868</v>
       </c>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
-      <c r="H254" s="21"/>
-      <c r="I254" s="21"/>
-      <c r="J254" s="21"/>
-      <c r="K254" s="21"/>
-      <c r="L254" s="21"/>
-      <c r="M254" s="21"/>
-      <c r="N254" s="21"/>
-      <c r="O254" s="21"/>
-      <c r="P254" s="21"/>
-      <c r="Q254" s="21"/>
-      <c r="R254" s="21"/>
-      <c r="S254" s="21"/>
-      <c r="T254" s="21"/>
-      <c r="U254" s="21"/>
-      <c r="V254" s="21"/>
-      <c r="W254" s="21"/>
-      <c r="X254" s="21"/>
-      <c r="Y254" s="21"/>
-      <c r="Z254" s="21"/>
-      <c r="AA254" s="21"/>
-      <c r="AB254" s="21"/>
+      <c r="B254" s="57"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="57"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="57"/>
+      <c r="H254" s="57"/>
+      <c r="I254" s="57"/>
+      <c r="J254" s="57"/>
+      <c r="K254" s="57"/>
+      <c r="L254" s="57"/>
+      <c r="M254" s="57"/>
+      <c r="N254" s="57"/>
+      <c r="O254" s="57"/>
+      <c r="P254" s="57"/>
+      <c r="Q254" s="57"/>
+      <c r="R254" s="57"/>
+      <c r="S254" s="57"/>
+      <c r="T254" s="57"/>
+      <c r="U254" s="57"/>
+      <c r="V254" s="57"/>
+      <c r="W254" s="57"/>
+      <c r="X254" s="57"/>
+      <c r="Y254" s="57"/>
+      <c r="Z254" s="57"/>
+      <c r="AA254" s="57"/>
+      <c r="AB254" s="57"/>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
@@ -34088,9 +34279,11 @@
       <c r="P259" s="21"/>
       <c r="Q259" s="21"/>
       <c r="R259" s="21"/>
-      <c r="S259" s="21"/>
-      <c r="T259" s="21"/>
-      <c r="U259" s="21"/>
+      <c r="S259" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T259" s="53"/>
+      <c r="U259" s="53"/>
       <c r="V259" s="21"/>
       <c r="W259" s="21"/>
       <c r="X259" s="21"/>
@@ -34100,68 +34293,68 @@
       <c r="AB259" s="21"/>
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A260" s="20">
+      <c r="A260" s="58">
         <v>41874</v>
       </c>
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="21"/>
-      <c r="F260" s="21"/>
-      <c r="G260" s="21"/>
-      <c r="H260" s="21"/>
-      <c r="I260" s="21"/>
-      <c r="J260" s="21"/>
-      <c r="K260" s="21"/>
-      <c r="L260" s="21"/>
-      <c r="M260" s="21"/>
-      <c r="N260" s="21"/>
-      <c r="O260" s="21"/>
-      <c r="P260" s="21"/>
-      <c r="Q260" s="21"/>
-      <c r="R260" s="21"/>
-      <c r="S260" s="21"/>
-      <c r="T260" s="21"/>
-      <c r="U260" s="21"/>
-      <c r="V260" s="21"/>
-      <c r="W260" s="21"/>
-      <c r="X260" s="21"/>
-      <c r="Y260" s="21"/>
-      <c r="Z260" s="21"/>
-      <c r="AA260" s="21"/>
-      <c r="AB260" s="21"/>
+      <c r="B260" s="59"/>
+      <c r="C260" s="59"/>
+      <c r="D260" s="59"/>
+      <c r="E260" s="59"/>
+      <c r="F260" s="59"/>
+      <c r="G260" s="59"/>
+      <c r="H260" s="59"/>
+      <c r="I260" s="59"/>
+      <c r="J260" s="59"/>
+      <c r="K260" s="59"/>
+      <c r="L260" s="59"/>
+      <c r="M260" s="59"/>
+      <c r="N260" s="59"/>
+      <c r="O260" s="59"/>
+      <c r="P260" s="59"/>
+      <c r="Q260" s="59"/>
+      <c r="R260" s="59"/>
+      <c r="S260" s="59"/>
+      <c r="T260" s="59"/>
+      <c r="U260" s="59"/>
+      <c r="V260" s="59"/>
+      <c r="W260" s="59"/>
+      <c r="X260" s="59"/>
+      <c r="Y260" s="59"/>
+      <c r="Z260" s="59"/>
+      <c r="AA260" s="59"/>
+      <c r="AB260" s="59"/>
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A261" s="20">
+      <c r="A261" s="56">
         <v>41875</v>
       </c>
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="21"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="21"/>
-      <c r="H261" s="21"/>
-      <c r="I261" s="21"/>
-      <c r="J261" s="21"/>
-      <c r="K261" s="21"/>
-      <c r="L261" s="21"/>
-      <c r="M261" s="21"/>
-      <c r="N261" s="21"/>
-      <c r="O261" s="21"/>
-      <c r="P261" s="21"/>
-      <c r="Q261" s="21"/>
-      <c r="R261" s="21"/>
-      <c r="S261" s="21"/>
-      <c r="T261" s="21"/>
-      <c r="U261" s="21"/>
-      <c r="V261" s="21"/>
-      <c r="W261" s="21"/>
-      <c r="X261" s="21"/>
-      <c r="Y261" s="21"/>
-      <c r="Z261" s="21"/>
-      <c r="AA261" s="21"/>
-      <c r="AB261" s="21"/>
+      <c r="B261" s="57"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="57"/>
+      <c r="F261" s="57"/>
+      <c r="G261" s="57"/>
+      <c r="H261" s="57"/>
+      <c r="I261" s="57"/>
+      <c r="J261" s="57"/>
+      <c r="K261" s="57"/>
+      <c r="L261" s="57"/>
+      <c r="M261" s="57"/>
+      <c r="N261" s="57"/>
+      <c r="O261" s="57"/>
+      <c r="P261" s="57"/>
+      <c r="Q261" s="57"/>
+      <c r="R261" s="57"/>
+      <c r="S261" s="57"/>
+      <c r="T261" s="57"/>
+      <c r="U261" s="57"/>
+      <c r="V261" s="57"/>
+      <c r="W261" s="57"/>
+      <c r="X261" s="57"/>
+      <c r="Y261" s="57"/>
+      <c r="Z261" s="57"/>
+      <c r="AA261" s="57"/>
+      <c r="AB261" s="57"/>
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="20">
@@ -34216,9 +34409,11 @@
       <c r="P263" s="21"/>
       <c r="Q263" s="21"/>
       <c r="R263" s="21"/>
-      <c r="S263" s="21"/>
-      <c r="T263" s="21"/>
-      <c r="U263" s="21"/>
+      <c r="S263" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="T263" s="53"/>
+      <c r="U263" s="53"/>
       <c r="V263" s="21"/>
       <c r="W263" s="21"/>
       <c r="X263" s="21"/>
@@ -34324,68 +34519,68 @@
       <c r="AB266" s="21"/>
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A267" s="20">
+      <c r="A267" s="58">
         <v>41881</v>
       </c>
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="21"/>
-      <c r="F267" s="21"/>
-      <c r="G267" s="21"/>
-      <c r="H267" s="21"/>
-      <c r="I267" s="21"/>
-      <c r="J267" s="21"/>
-      <c r="K267" s="21"/>
-      <c r="L267" s="21"/>
-      <c r="M267" s="21"/>
-      <c r="N267" s="21"/>
-      <c r="O267" s="21"/>
-      <c r="P267" s="21"/>
-      <c r="Q267" s="21"/>
-      <c r="R267" s="21"/>
-      <c r="S267" s="21"/>
-      <c r="T267" s="21"/>
-      <c r="U267" s="21"/>
-      <c r="V267" s="21"/>
-      <c r="W267" s="21"/>
-      <c r="X267" s="21"/>
-      <c r="Y267" s="21"/>
-      <c r="Z267" s="21"/>
-      <c r="AA267" s="21"/>
-      <c r="AB267" s="21"/>
+      <c r="B267" s="59"/>
+      <c r="C267" s="59"/>
+      <c r="D267" s="59"/>
+      <c r="E267" s="59"/>
+      <c r="F267" s="59"/>
+      <c r="G267" s="59"/>
+      <c r="H267" s="59"/>
+      <c r="I267" s="59"/>
+      <c r="J267" s="59"/>
+      <c r="K267" s="59"/>
+      <c r="L267" s="59"/>
+      <c r="M267" s="59"/>
+      <c r="N267" s="59"/>
+      <c r="O267" s="59"/>
+      <c r="P267" s="59"/>
+      <c r="Q267" s="59"/>
+      <c r="R267" s="59"/>
+      <c r="S267" s="59"/>
+      <c r="T267" s="59"/>
+      <c r="U267" s="59"/>
+      <c r="V267" s="59"/>
+      <c r="W267" s="59"/>
+      <c r="X267" s="59"/>
+      <c r="Y267" s="59"/>
+      <c r="Z267" s="59"/>
+      <c r="AA267" s="59"/>
+      <c r="AB267" s="59"/>
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A268" s="20">
+      <c r="A268" s="56">
         <v>41882</v>
       </c>
-      <c r="B268" s="21"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="21"/>
-      <c r="F268" s="21"/>
-      <c r="G268" s="21"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-      <c r="L268" s="21"/>
-      <c r="M268" s="21"/>
-      <c r="N268" s="21"/>
-      <c r="O268" s="21"/>
-      <c r="P268" s="21"/>
-      <c r="Q268" s="21"/>
-      <c r="R268" s="21"/>
-      <c r="S268" s="21"/>
-      <c r="T268" s="21"/>
-      <c r="U268" s="21"/>
-      <c r="V268" s="21"/>
-      <c r="W268" s="21"/>
-      <c r="X268" s="21"/>
-      <c r="Y268" s="21"/>
-      <c r="Z268" s="21"/>
-      <c r="AA268" s="21"/>
-      <c r="AB268" s="21"/>
+      <c r="B268" s="57"/>
+      <c r="C268" s="57"/>
+      <c r="D268" s="57"/>
+      <c r="E268" s="57"/>
+      <c r="F268" s="57"/>
+      <c r="G268" s="57"/>
+      <c r="H268" s="57"/>
+      <c r="I268" s="57"/>
+      <c r="J268" s="57"/>
+      <c r="K268" s="57"/>
+      <c r="L268" s="57"/>
+      <c r="M268" s="57"/>
+      <c r="N268" s="57"/>
+      <c r="O268" s="57"/>
+      <c r="P268" s="57"/>
+      <c r="Q268" s="57"/>
+      <c r="R268" s="57"/>
+      <c r="S268" s="57"/>
+      <c r="T268" s="57"/>
+      <c r="U268" s="57"/>
+      <c r="V268" s="57"/>
+      <c r="W268" s="57"/>
+      <c r="X268" s="57"/>
+      <c r="Y268" s="57"/>
+      <c r="Z268" s="57"/>
+      <c r="AA268" s="57"/>
+      <c r="AB268" s="57"/>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" s="20">
@@ -35350,15 +35545,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="C74:Z74"/>
-    <mergeCell ref="C107:Z107"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="I2:K2"/>
@@ -35375,6 +35561,15 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="C107:Z107"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35396,11 +35591,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="81">
         <v>41675</v>
       </c>
@@ -35414,11 +35609,11 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="81">
         <v>41703</v>
       </c>
@@ -35441,82 +35636,82 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77">
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76">
         <f>SUM(E11:E375)+SUM(I11:I375)+SUM(M11:M375)+SUM(Q11:Q375)+SUM(U11:U375)+SUM(Z11:Z375)</f>
         <v>3.5</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76">
         <f>SUM(D11:D375)+SUM(H11:H375)+SUM(L11:L375)+SUM(P11:P375)+SUM(T11:T375)+SUM(Y11:Y375)</f>
         <v>4.75</v>
       </c>
-      <c r="M6" s="77"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="82" t="s">
+      <c r="W9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -37488,13 +37683,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:U9"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="I2:K2"/>
@@ -37508,6 +37696,13 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
